--- a/Apteka Słonik - przypadki testowe.xlsx
+++ b/Apteka Słonik - przypadki testowe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulina1\Documents\Paulina\cherry IT kurs\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA45C6F-5436-4A14-9B9A-CAA75380F5A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB982C5F-2670-4F01-BF3A-8420FC7B0E99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{AB1AB39C-E731-44E5-9F2C-6E1CC1ADA555}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="173">
   <si>
     <t>ID</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Próba zalogowania się do systemu jako klient podając niepoprawny login i niepoprawne hasło.</t>
   </si>
   <si>
-    <t>Celem testu jest sprawdzenie, czy można się zalogować do systemu podając niepoprwne dane do logowania.</t>
-  </si>
-  <si>
     <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
 2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
 3. Wprowadź niepoprawny login i niepoprawne hasło i kliknij przycisk "ZALOGUJ" - powinien pojawić się czerwony komunikat "Błędny identyfikator lub hasło".</t>
@@ -116,31 +113,7 @@
     <t xml:space="preserve">Poprawne zarządzanie swoim kontem po zalogowaniu się jako klient - przeglądanie historii zamówień, zmiana danych i hasła, wylogowanie się. </t>
   </si>
   <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Na dole okna znajdź słowo "Rejestracja" i kliknij w nie - powinno nastąpić przekierowanie do formularza rejestracyjnego.
-3. Wprowadź poprawne dane, wyrażaź zgodę na umieszczenie swoich danych teleadresowych w bazie firmy i kliknij przycisk "ZAREJESTRUJ SIĘ" - powinien pojawić się komunikat "Rejestracja zakończona sukcesem ! 
-Dziękujemy serdecznie za zarejestrowanie się w Aptece Słonik!
-Na podany adres email został wysłany link do aktywacji konta.
-Należy teraz sprawdzić swoją pocztę i kliknąć na link znajdujący się w emailu od Apteki Słonik.
-Jeśli po upływie 12 godzin nie otrzymasz linka do aktywacji, prosimy o kontakt z obsługą Apteki Słonik."
-4. Przejdź na skrzynkę podaną podczas rejestracji - powinien znajdować się na niej mail od Apteki Słonik. 
-5. Otwórz mail i kliknij w link rejestracyjny - powinno nastąpić przekierowanie na stronę apteki. Powinien być widoczny komunikat informujący o poprawnej aktywacji konta.</t>
-  </si>
-  <si>
     <t>Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/. W historii zamówień powinna być przynajmniej jedna pozycja.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Przejrzyj listę zamówień. Po kliknięciu w wybrane zamówienie powinny wyświetlić się szczegóły zamówienia.
-5. W prawym górnym rogu strony, pod panelem "Moje konto", kliknij w "Moje dane" - powinny wyświetlić się Twoje dane.
-6. Zmień swój adres i numer telefonu wpisująć poprawne dane. Kliknij przycisk "Zapisz zmiany" - powinien pojawić się komunikat "Sukces Dane zostały poprawnie zmienione".
-7. Z panelu "Moje konto" wybierz "Zmiana hasła" - powinien pojawić się formularz umożliwiający zmianę hasła.
-8. Wpisz poprawne stare hasło  wpierwszym oknie, a  wdwóch kolejnych poprawne nowe hasło (musi zawierać conajmniej 4 znaki). Kliknij przycisk "Zapisz".
-9. Powinien wyświetlić się komunikat: "Sukces Hasło zostało poprawnie zmienione".
-10. Kliknij przycisk "Wyloguj" w panelu "Moje konto" - powinno nastąpić prawidłowe wylogowanie się ze strony.
-</t>
   </si>
   <si>
     <t>Prawidłowe wylogowanie się ze strony.</t>
@@ -177,40 +150,359 @@
 Jeśli po upływie 12 godzin nie otrzymasz linka do aktywacji, prosimy o kontakt z obsługą Apteki Słonik.".</t>
   </si>
   <si>
-    <t>Pojawienie się wszystkicj komunikatów z kroków reprodukcji.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Próba rejestracji w systemie podając jako login isniejący już login. </t>
+    <t>Widoczny komunikat informujący o tym, że podany login jest już zajęty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Próba rejestracji w systemie podając niepoprawne dane. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie czy można zmienić obecne hasło na hasło krótsze niż wymagane przez system (minimum 4 znaki) oraz sprawdzenie, czy system zaakceptuje błędnie powtórzone nowe hasło. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się komunikatów zawartych w krokach reprodukcji. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie, czy można edytować dane klienta wpisując niepoprawne dane. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie czy główne menu strony działa poprawnie. </t>
+  </si>
+  <si>
+    <t>Poprawne wykonanie wszystkich kroków reprodukcji.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zrobienie zamówienia jako niezarejestrowany użytkownik. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest poprawne dokonanie zamówienia jako niezarejestrowany użytkownik. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zrobienie zamówienia jako zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest poprawne dokonanie zamówienia jako zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Dodaj dowolny dostępny produkt na stronie do koszyka.
+3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
+4. Zmień ilość produktów na 2. Kliknij przycisk "PRZELICZ" - cena za produkty powinna być przeliczona.
+5. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
+6. Podaj poprawne dane w Adresie wysyłki, wybierz formę dostawy, formę płatności oraz podaj poprawne dane kontaktowe. 
+7. Kliknij przycisk "DALEJ" - powinno pojawić się podsumowanie całego zamówienia, wprowadzonych danych do wysyłki, do kontaktu, wybór dostawy i płatności.
+8. Kliknij przycisk "ZREALIZUJ ZAMÓWIENIE" - powinien pojawić się komunikat potwierdzający złożenie zamówienia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprawdzenie czy istnieje walidacja obowiązkowych pól, które należy wypełnić podczas rejestracji. </t>
+  </si>
+  <si>
+    <t>Sprawdzenie, czy można zarejestrować się w systemie pozostawiając obowiązkowe pola puste.</t>
+  </si>
+  <si>
+    <t>Przekierowanie do podsumowania zamówienia.</t>
+  </si>
+  <si>
+    <t>Próba złożenia zamówienia jako niezarejestrowany użytkownik bez podania adresu wysyłki i danych kontaktowych.</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie, czy istnieje zabezpieczenie przed złożeniem zamówienia bez podania adresu do wysyłki i danych kontaktowych.</t>
+  </si>
+  <si>
+    <t>Pojawienie się komunikatu informującego o błędnie wybranej formie transportu.</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie, czy system posiada zabezpieczenie przed błędnym wybraniem formy dostawy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie, czy system posiada zabezpieczenie przed błędnym wybraniem formy dostawy i/lub formy płatności. </t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie, czy wyszukiwarka ucina białe znaki i czy wyszukuje produktu po podaniu tylko fragmentu frazy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie, czy wyszukiwanie proste działa poprawnie.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie czy wyszukiwanie zaawansowane działa poprawnie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Z lewej strony znajduje się wyszukiwarka. Kliknij w "Wyszukiwanie zaawansowane" - powinien pojawić się widok wyszukiwarki zaawansowanej. 
+3. W okno wyszukiwarki wpisz "krem", a jako postać "aerozol". 
+4. Kliknij przycisk "SZUKAJ" - powinna pojawić się pusta strona z wynikami oraz informacja "Jeśli nie ma produktu, którego szukasz... 
+Koniecznie napisz do nas: apteka@aptekaslonik.pl".
+</t>
+  </si>
+  <si>
+    <t>Pojawienie się pustej strony z wynikami i informacji "Jeśli nie ma produktu, którego szukasz... 
+Koniecznie napisz do nas: apteka@aptekaslonik.pl".</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Z lewej strony znajduje się wyszukiwarka. Kliknij w "Wyszukiwanie zaawansowane" - powinien pojawić się widok wyszukiwarki zaawansowanej. 
+3. Ustal zakres cenowy: w okno "od" wpisz 100, a "do" 50. Kliknij "SZUKAJ" - powinien pojawić się komunikat informujący o niepoprawnie wybranym zakresie cenowym.
+4. Ustal zakres cenowy: w okno "od" wpisz -10, a "do" -5. Kliknij "SZUKAJ" - powinien pojawić się komunikat informujący o niepoprawnie wybranym zakresie cenowym, ceny nie mogą być ujemne.
+5. Ustal zakres cenowy: w okno "od" wpisz 0, a "do" 0. Kliknij "SZUKAJ" - powinien pojawić się komunikat informujący, że wybrana cena "od" powinna być większa od 0, a cena "do" powinna być większa od ceny "od".</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie walidacji pól wyszukiwarki "od" i "do".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poprawne wykonanie wszystkich kroków reprodukcji i pojawienie się stosownych komunikatów. </t>
+  </si>
+  <si>
+    <t>Data utworzenia: 06.03.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Próba dodania opinii o produkcie jako niezarejestrowany użytkownik. </t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie, czy niezarejestrowany użytkownik może dodać opinię o dowolnym produkcie.</t>
+  </si>
+  <si>
+    <t>Próba dodania opinii o produkcie jako zalogowany użytkownik o prawach klienta pozostawiając pusty formularz opinii.</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie, czy można dodać opinię o produkcie z pustą treścią i bez podania nicku.</t>
+  </si>
+  <si>
+    <t>Zapytanie o produkt, którego nie ma na stanie jako zalogowany użytkownik o prawach klienta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie, czy działa przycisk umożliwiający zapytanie o dostępność produktów, których w danej chwili nie ma na stanie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wysłanie zapytania przez formularz "Zapytaj farmaceutę" jako zalogowany użytkownik o prawach klienta lub jako niezarejestrowany użytkownik. </t>
+  </si>
+  <si>
+    <t>Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Próba wysłania psutego zapytania przez formularz "Zapytaj farmaceutę" jako zalogowany użytkownik z prawami klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się komunikatu informującego, że pola Imię i nazwisko, adres e-mail i pytanie są obowiązkowe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Próba wysłania zapytania przez formularz "Zapytaj farmaceutę" podając nieprawidłowe dane jako zalogowany użytkownik z prawami klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie, czy istnieje zabezpieczenie przed wysłaniem pustego zapytania w formularzu "Zapytaj farmaceutę". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie, czy pola w formularzy posiadają walidację. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przypadki testowe zostały napisane dla niezarejestrowanego użytkownika oraz dla zalogowanego użytkownika o prawach klienta. Pominięto przypadki testowe dla administratora ze względu na brak dostępu do konta administratora. </t>
+  </si>
+  <si>
+    <t>Pojawienie się odpowiedniego komunikatu z punktu 5. kroków reprodukcji.</t>
+  </si>
+  <si>
+    <t>Przeglądanie panelu "Informacje" oraz "promocje" jako niezarejestrowany lub zalogowany użytkownik o prawach klienta.</t>
+  </si>
+  <si>
+    <t>Przeglądanie hiperłączy w postaci banerów na stronie głównej jako niezarejestrowany lub zalogowany użytkownik o prawach klienta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Z lewej strony znajduje się panel "Informacje". Klikaj po kolei w hiperłącza zawarte w panelu - powinno Cię przenosić na stronę adekwatną do nazwy hiperłącza. 
+3. Z prawej strony znajduje się panel "Promocje". Klikaj po kolei w hiperłącza zawarte w panelu - powinno Cię przenosić na stronę adekwatną do nazwy hiperłącza. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprawdzenie i stwierdzenie poprawnego działania wszystkich hiperłączy wymienionych w krokach reprodukcji. </t>
+  </si>
+  <si>
+    <t>Przeglądanie zakładek w głównym menu strony jako dowolny użytkownik.</t>
+  </si>
+  <si>
+    <t>Próba dodania do koszyka bardzo dużej ilości produktów lub zamówienie 0 lub ujemnej ilości danego produktu jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Próba wybrania darmowej formy transportu (dostępnej od 169zł) przy zakupach poniżej wymaganej kwoty jako niezarejestrowany użytkownik. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Próba wybrania jako formy transportu kuriera oraz jako formy zapłaty - Zapłata w Aptece Słonik przy osobistym odbiorze jako niezarejestrowany użytkownik. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyszukiwanie proste produktu oraz sortowanie wyników jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyszukiwanie proste produktu po haśle poprzedzonym białym znakiem lub po fragmencie wyrazu jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyszukiwanie zaawansowane produktu jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Próba wyszukiwania zaawansowanego produktu po nazwie i postaci, w której dany produkt nie występuje jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Próba wyszukiwania zaawansowanego produktu wpisując niepoprawny zakres cen jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się komunikatu informującego, ze pola nick i opinia są wymagane. </t>
+  </si>
+  <si>
+    <t>Pojawienie się komunikatu informującego, że tylko zarejestrowany użytkownik może dodać opinię o produkcie.</t>
+  </si>
+  <si>
+    <t>Pojawienie się komunikatu informującego, ze opinia została dodana pomyślnie.</t>
+  </si>
+  <si>
+    <t>SłTC-001</t>
+  </si>
+  <si>
+    <t>SłTC-002</t>
+  </si>
+  <si>
+    <t>SłTC-003</t>
+  </si>
+  <si>
+    <t>SłTC-004</t>
+  </si>
+  <si>
+    <t>SłTC-005</t>
+  </si>
+  <si>
+    <t>SłTC-006</t>
+  </si>
+  <si>
+    <t>SłTC-007</t>
+  </si>
+  <si>
+    <t>SłTC-008</t>
+  </si>
+  <si>
+    <t>SłTC-009</t>
+  </si>
+  <si>
+    <t>SłTC-010</t>
+  </si>
+  <si>
+    <t>SłTC-011</t>
+  </si>
+  <si>
+    <t>SłTC-012</t>
+  </si>
+  <si>
+    <t>SłTC-013</t>
+  </si>
+  <si>
+    <t>SłTC-014</t>
+  </si>
+  <si>
+    <t>SłTC-015</t>
+  </si>
+  <si>
+    <t>SłTC-016</t>
+  </si>
+  <si>
+    <t>SłTC-017</t>
+  </si>
+  <si>
+    <t>SłTC-018</t>
+  </si>
+  <si>
+    <t>SłTC-019</t>
+  </si>
+  <si>
+    <t>SłTC-020</t>
+  </si>
+  <si>
+    <t>SłTC-021</t>
+  </si>
+  <si>
+    <t>SłTC-022</t>
+  </si>
+  <si>
+    <t>SłTC-023</t>
+  </si>
+  <si>
+    <t>SłTC-024</t>
+  </si>
+  <si>
+    <t>SłTC-025</t>
+  </si>
+  <si>
+    <t>SłTC-026</t>
+  </si>
+  <si>
+    <t>SłTC-027</t>
+  </si>
+  <si>
+    <t>SłTC-028</t>
+  </si>
+  <si>
+    <t>SłTC-029</t>
+  </si>
+  <si>
+    <t>SłTC-030</t>
+  </si>
+  <si>
+    <t>SłTC-031</t>
+  </si>
+  <si>
+    <t>SłTC-032</t>
+  </si>
+  <si>
+    <t>SłTC-033</t>
   </si>
   <si>
     <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
 2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Na dole okna znajdź słowo "Rejestracja" i kliknij w nie - powinno nastąpić przekierowanie do formularza rejestracyjnego.
-3. Jako login podaj login z zarejestrowanego już wczesniej konta. W resztę wymaganych pól wprowadź poprawne dane, wyrażaź zgodę na umieszczenie swoich danych teleadresowych w bazie firmy i kliknij przycisk "ZAREJESTRUJ SIĘ" - powinien pojawić się komunikat "Podany login już istnieje, proszę wybrać inny".</t>
-  </si>
-  <si>
-    <t>Widoczny komunikat informujący o tym, że podany login jest już zajęty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Próba rejestracji w systemie podając niepoprawne dane. </t>
+3. Wprowadź poprawne dane, wyraź zgodę na umieszczenie swoich danych teleadresowych w bazie firmy i kliknij przycisk "ZAREJESTRUJ SIĘ" - powinien pojawić się komunikat "Rejestracja zakończona sukcesem ! 
+Dziękujemy serdecznie za zarejestrowanie się w Aptece Słonik!
+Na podany adres email został wysłany link do aktywacji konta.
+Należy teraz sprawdzić swoją pocztę i kliknąć na link znajdujący się w emailu od Apteki Słonik.
+Jeśli po upływie 12 godzin nie otrzymasz linka do aktywacji, prosimy o kontakt z obsługą Apteki Słonik."
+4. Przejdź na skrzynkę podaną podczas rejestracji - powinien znajdować się na niej mail od Apteki Słonik. 
+5. Otwórz mail i kliknij w link rejestracyjny - powinno nastąpić przekierowanie na stronę apteki. Powinien być widoczny komunikat informujący o poprawnej aktywacji konta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Próba rejestracji w systemie podając jako login istniejący już login. </t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie, czy można się zarejestrować w systemie podając login zarejestrowanego już użytkownika.</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Na dole okna znajdź słowo "Rejestracja" i kliknij w nie - powinno nastąpić przekierowanie do formularza rejestracyjnego.
+3. Jako login podaj login z zarejestrowanego już wcześniej konta. W resztę wymaganych pól wprowadź poprawne dane, wyraź zgodę na umieszczenie swoich danych teleadresowych w bazie firmy i kliknij przycisk "ZAREJESTRUJ SIĘ" - powinien pojawić się komunikat "Podany login już istnieje, proszę wybrać inny".</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie, czy można się zalogować do systemu podając niepoprawne dane do logowania.</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Na dole okna znajdź słowo "Rejestracja" i kliknij w nie - powinno nastąpić przekierowanie do formularza rejestracyjnego.
+3. We wszystkie wymagane pole wpisz 3-znakowy ciąg znaków składający się z cyfr i znaków specjalnych, np. "1#9". Kliknij przycisk "ZAREJESTRUJ SIĘ" - powinien pojawić się komunikat informujący, że: pola Imię, Nazwisko i Miejscowość mogą zawierać tylko litery (minimum 3); pole Hasło i Powtórz hasło powinny zawierać minimum 4 znaki; pole Ulica i nr domu musi zawierać przynamniej trzy litery i przynajmniej jedną cyfrę; Adres e-mail powinien zawierać znak "@"; Pole kod pocztowy powinno zawierać tylko cyfry w formacie XX-XXX, a pole Nr telefonu powinno zawierać 9 cyfr.</t>
+  </si>
+  <si>
+    <t>Pojawienie się wszystkich komunikatów z kroków reprodukcji.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
+3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+4. Przejrzyj listę zamówień. Po kliknięciu w wybrane zamówienie powinny wyświetlić się szczegóły zamówienia.
+5. W prawym górnym rogu strony, pod panelem "Moje konto", kliknij w "Moje dane" - powinny wyświetlić się Twoje dane.
+6. Zmień swój adres i numer telefonu wpisując poprawne dane. Kliknij przycisk "Zapisz zmiany" - powinien pojawić się komunikat "Sukces Dane zostały poprawnie zmienione".
+7. Z panelu "Moje konto" wybierz "Zmiana hasła" - powinien pojawić się formularz umożliwiający zmianę hasła.
+8. Wpisz poprawne stare hasło  w pierwszym oknie, a  w dwóch kolejnych poprawne nowe hasło (musi zawierać co najmniej 4 znaki). Kliknij przycisk "Zapisz".
+9. Powinien wyświetlić się komunikat: "Sukces Hasło zostało poprawnie zmienione".
+10. Kliknij przycisk "Wyloguj" w panelu "Moje konto" - powinno nastąpić prawidłowe wylogowanie się ze strony.
+</t>
   </si>
   <si>
     <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
 2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
 3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
 4. W prawym górnym rogu strony, pod panelem "Moje konto", kliknij w "Moje dane" - powinny wyświetlić się Twoje dane.
-5. W pola: Imię, Nazwisko, Ulica i nr domu i Miejscowość wpisz ciągi znaków składające się z samych cyfr i znaków specjalnych. W pole Adres e-mail wpisz same litery. W pola Kod pocztowy i Telefon wpisz ciągi znaków zkładających się z liter i znaków specjalnych. Kliknij przycisk "Zapisz".
+5. W pola: Imię, Nazwisko, Ulica i nr domu i Miejscowość wpisz ciągi znaków składające się z samych cyfr i znaków specjalnych. W pole Adres e-mail wpisz same litery. W pola Kod pocztowy i Telefon wpisz ciągi znaków składające się z liter i znaków specjalnych. Kliknij przycisk "Zapisz".
 6. Powinien pojawić się komunikat informujący, że: pola Imię, Nazwisko i Miejscowość mogą zawierać tylko litery (minimum 3); pole Ulica i nr domu musi zawierać przynamniej trzy litery i przynajmniej jedną cyfrę; Adres e-mail powinien zawierać znak "@"; Pole kod pocztowy powinno zawierać tylko cyfry w formacie XX-XXX, a pole Nr telefonu powinno zawierać 9 cyfr.</t>
   </si>
   <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Na dole okna znajdź słowo "Rejestracja" i kliknij w nie - powinno nastąpić przekierowanie do formularza rejestracyjnego.
-3. We wszystkie wymagane pole wpisz 3=znakowy ciąg znaków zkładający się z cyfr i znaków specjalnych, np "1#9". Kliknij przycisk "ZAREJESTRUJ SIĘ" - powinien pojawić się komunikat informujący, że: pola Imię, Nazwisko i Miejscowość mogą zawierać tylko litery (minimum 3); pole Hasło i Powtórz hasło powinny zawierać minimum 4 znaki; pole Ulica i nr domu musi zawierać przynamniej trzy litery i przynajmniej jedną cyfrę; Adres e-mail powinien zawierać znak "@"; Pole kod pocztowy powinno zawierać tylko cyfry w formacie XX-XXX, a pole Nr telefonu powinno zawierać 9 cyfr.</t>
-  </si>
-  <si>
-    <t>Próba zmiany hasła wpisując za krótkie hasło lub błędnie powtarzająć nowe hasło.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie czy można zmienić obecne hasło na hasło krótsze niż wymagane przez system (minimum 4 znaki) oraz sprawdzenie, czy system zaakceptuje błędnie powtórzone nowe hasło. </t>
+    <t>Próba zmiany hasła wpisując za krótkie hasło lub błędnie powtarzając nowe hasło.</t>
   </si>
   <si>
     <r>
@@ -218,7 +510,7 @@
 2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
 3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
 4. W prawym górnym rogu strony, pod panelem "Moje konto", kliknij w "Zmiana hasła" - powinien wyświetlić się formularz umożliwiający zmianę obecnego hasła.
-5. W pole "Stare hasło: podaj stare hasło. W pole "Nowe hasło" wpisz hasło krótsze niż 4 znaki. Powtórz nowe hasło w kolejnym oknie. Kliknij przycisk "Zapisz" - powinien pojawić się komunikat: "Błąd - Hasło musi zawierać conajmniej 4 znaki".</t>
+5. W pole "Stare hasło: podaj stare hasło. W pole "Nowe hasło" wpisz hasło krótsze niż 4 znaki. Powtórz nowe hasło w kolejnym oknie. Kliknij przycisk "Zapisz" - powinien pojawić się komunikat: "Błąd - Hasło musi zawierać co najmniej 4 znaki".</t>
     </r>
     <r>
       <rPr>
@@ -242,18 +534,9 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">6. W pierwsze pole "Nowe hasło" wpisz teraz hasło składające się z minimum 4 znaków. W kolejne pole wpisz inne hasło. Kliknij przycisk "Zapisz" - powinien wyświetlić sie komunikat "Błąd - Hasło i jego powtórzenie są różne".
+      <t xml:space="preserve">6. W pierwsze pole "Nowe hasło" wpisz teraz hasło składające się z minimum 4 znaków. W kolejne pole wpisz inne hasło. Kliknij przycisk "Zapisz" - powinien wyświetlić się komunikat "Błąd - Hasło i jego powtórzenie są różne".
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Pojawienie się komunikatów zawartych w krokach reprodukcji. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie, czy można edytować dane klienta wpisując niepoprawne dane. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie czy główne menu strony działa poprawnie. </t>
   </si>
   <si>
     <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
@@ -263,335 +546,33 @@
 5. Wybierz przycisk "REGULAMIN" w głównym menu strony - powinno Cię przekierować do podstrony z regulaminem w Aptece Słonik.
 6. Wybierz przycisk "PŁATNOŚCI" w głównym menu strony - powinno Cię przekierować do podstrony z informacjami o dostępnych metodach płatności. Zjedź niżej i kliknij w "OPCJE DOSTAW ZAMÓWIEŃ - ZOBACZ" - powinno Cię przekierować do strony z informacjami dotyczącymi dostawy.
 7. Wybierz przycisk "DOSTAWA" w głównym menu strony - powinna otworzyć się ponownie strona z informacjami dotyczącymi dostawy.
-8. Zjedź w dół strony, pod tabelą "PRZESYŁKI NA TERENIE POLSKI" widnieje link "odbiorwpunkcie.poczta-polska.pl", kliknij w niego - w noej karcie powina się otworzyć strona Poczty Polskiej umożliwiająca wyszukanie punktów odbioru. Zamknij zakładkę z tą stroną.
+8. Zjedź w dół strony, pod tabelą "PRZESYŁKI NA TERENIE POLSKI" widnieje link "odbiorwpunkcie.poczta-polska.pl", kliknij w niego - w nowej karcie powinna się otworzyć strona Poczty Polskiej umożliwiająca wyszukanie punktów odbioru. Zamknij zakładkę z tą stroną.
 9. Wybierz przycisk "FAQ" w głównym menu strony - powinno Cię przekierować do podstrony z najczęściej zadawanymi pytaniami.
-10. Kliknij w link "POMOC" - pownna otworzyć się podstrona z informacjami dotyczącymi pomocy w korzystaniu ze strony Apteki Słonik.
+10. Kliknij w link "POMOC" - powinna otworzyć się podstrona z informacjami dotyczącymi pomocy w korzystaniu ze strony Apteki Słonik.
 11. Wybierz przycisk "POMOC" w głównym menu strony - powinna otworzyć się ponownie strona z informacjami dotyczącymi pomocy.
 12. Wybierz przycisk "KONTAKT" w głównym menu strony - powinno Cię przekierować do strony zawierającej dane kontaktowe. </t>
   </si>
   <si>
-    <t>Poprawne wykonanie wszystkich kroków reprodukcji.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zrobienie zamówienia jako niezarejestrowany użytkownik. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest poprawne dokonanie zamówienia jako niezarejestrowany użytkownik. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pojawienie się komunikatu potwierdzającego złożnie zamówienia. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zrobienie zamówienia jako zalogowany użytkownik o prawach klienta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest poprawne dokonanie zamówienia jako zalogowany użytkownik o prawach klienta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Dodaj dowolny dostępny produkt na stronie do koszyka.
-3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
-4. Zmień ilość produktów na 2. Kliknij przycisk "PRZELICZ" - cena za produkty powinna być przeliczona.
-5. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
-6. Podaj poprawne dane w Adresie wysyłki, wybierz formę dostawy, formę płatności oraz podaj poprawne dane kontaktowe. 
-7. Kliknij przycisk "DALEJ" - powinno pojawić się podsumowanie całego zamówienia, wprowadzonych danych do wysyłki, do kontaktu, wybór dostawy i płatności.
-8. Kliknij przycisk "ZREALIZUJ ZAMÓWIENIE" - powinien pojawić się komunikat potwierdzający złożenie zamówienia. </t>
+    <t xml:space="preserve">Pojawienie się komunikatu potwierdzającego złożenie zamówienia. </t>
   </si>
   <si>
     <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
 2. Zaloguj się poprawnymi danymi na stronie.
 3. Dodaj dwa dowolne różne dostępne produkty do koszyka.
 4. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
-5. Zmień ilość produktów w pierwszej pozycij na 2. Kliknij przycisk "PRZELICZ" - cena za produkty powinna być przeliczona.
-6. Usuń drugi przedmiot z koszyka zaznaczając czeck box obok danej pozycji o klikająć "PRZELICZ".
+5. Zmień ilość produktów w pierwszej pozycji na 2. Kliknij przycisk "PRZELICZ" - cena za produkty powinna być przeliczona.
+6. Usuń drugi przedmiot z koszyka zaznaczając check box obok danej pozycji o klikając "PRZELICZ".
 7. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy wypełniony danymi zapisanymi podczas rejestracji i opcje wysyłki.
-8. Wybierz formę dostawy oraz formę płatności, dane kontaktowe powinny być automatycznie wypełnione danymi zapisanymi podczas rejestracji kota. 
+8. Wybierz formę dostawy oraz formę płatności, dane kontaktowe powinny być automatycznie wypełnione danymi zapisanymi podczas rejestracji konta. 
 9. Kliknij przycisk "DALEJ" - powinno pojawić się podsumowanie całego zamówienia, wprowadzonych danych do wysyłki, do kontaktu, wybór dostawy i płatności.
 10. Kliknij przycisk "POWRÓT" w celu edycji zamówienia - powinno Cię przekierować na poprzednią stronę.
 11. Pod Zamówionymi produktami kliknij w "Edytuj koszyk" - powinno Cię przekierować do widoku koszyka. 
-12. Zmień ilość oroduktów w koszyku na 1 i przelicz koszyk.
+12. Zmień ilość produktów w koszyku na 1 i przelicz koszyk.
 13. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE", a następnie "DALEJ". 
 14. Kliknij przycisk "ZREALIZUJ ZAMÓWIENIE" - powinien pojawić się komunikat potwierdzający złożenie zamówienia. </t>
   </si>
   <si>
-    <t>Celem testu jest sprawdzenie, czy można się zarejestrować w systemie podając login zarejestrowanego już użytkowanika.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprawdzenie czy istnieje walidacja obowiązkowych pól, które należy wypełnić podczas rejestracji. </t>
-  </si>
-  <si>
-    <t>Sprawdzenie, czy można zarejestrować się w systemie pozostawiając obowiązkowe pola puste.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Dodaj dowolny dostępny produkt na stronie do koszyka.
-3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
-4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
-5. Nie wpisuj nic tylko kliknij "DALEJ" - powinien pojawić się komunikat "Proszę podać Adresata przesyłki".
-6. Podaj prawidłowe dane adresowe i kliknij "DALEJ" - powienien pojawić się komunikat: "Proszę podać adres e-mail".
-7. Podaj adres e-mail i kliknij "DALEJ" - powienien pojawić się komunikat: "Proszę podać telefon".
-8. Podaj telefon i wciśnij przycisk "DALEJ" - powinno Cię przekierować do podsumowaia zamówienia. 
-</t>
-  </si>
-  <si>
-    <t>Przekierowanie do podsumowania zamówienia.</t>
-  </si>
-  <si>
-    <t>Próba złożenia zamówienia jako niezarejestrowany użytkownik bez podania adresu wysyłki i danych kontaktowych.</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie, czy istnieje zabezpieczenie przed złożeniem zamówienia bez podania adresu do wysyłki i danych kontaktowych.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Dodaj dowolny dostępny produkt na stronie do koszyka, którego cena jest niższa niż 169zł.
-3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
-4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
-5. Wypełnij poprawnie adres wysyłki i dane kontaktowe. Jako formę tramsportu wybierz "GRATIS WYSYŁKA - WPŁATA na konto - zakupy powyżej 169zł - POCZTA POLSKA", a jako formę płatności Wpłata na konto.
-6. Kliknij przycisk "DALEJ" - powinien pojawić się komunikat informujący, że należy zamówić towary za minimum 169zł, aby wybrać wybraną formę transportu. 
-</t>
-  </si>
-  <si>
-    <t>Pojawienie się komunikatu informującego o błędnie wybranej formie transportu.</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie, czy system posiada zabezpieczenie przed błędnym wybraniem formy dostawy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pojawienie się komunikatu informującego o niepoprawenie wybranej formi etransportu i/lub formie płatności. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie, czy system posiada zabezpieczenie przed błędnym wybraniem formy dostawy i/lub formy płatności. </t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie, czy wyszukiwarka ucina białe znaki i czy wyszukuje produktu po podaniu tylko fragmentu frazy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Dodaj dowolny dostępny produkt na stronie do koszyka.
-3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
-4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
-5. Wypełnij poprawnie adres wysyłki i dane kontaktowe. Jako formę tramsportu wybierz "KURIER UPS - WPŁATA NA KONTO - KURIER UPS ", a jako formę płatności "Zapłata w Aptece Słonik przy osobistym odbiorze ".
-6. Kliknij przycisk "DALEJ" - powinien pojawić się komunikat informujący, że forma płatności i/lub forma transportu zostały niepoprawnie wybrane. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie, czy wyszukiwanie proste działa poprawnie.  </t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Z lewej strony znajduje się wyszukiwarka. Wpisz w okno wyszukiwania szukaną frazę np. "krem". Kliknij przycisk "SZUKAJ" lub enter - powinna pojawić się lista produktów odpowiadających wyszukiwanej frazie.
-3. Przy nagłówku "Nazwa produktu" widoczny jest biały trójkącik skierowany w górę - lista wyników powinna być sortowana alfabetycznie rosnąco wg nazwy.
-4. Kliknij w nagłówek "Nazwa produktu" - biały trójkącik powinien być teraz skeirowany w dół, a wyniki powinny wyświetlać się w kolejności alfabetycznej malejąco wg nazwy.
-5. Kliknij w nagłówek "Postać" - wyniki powinny być teraz sortowane alfabetycznie wg postaci produktu - rosnąco, gdy trójkącik jest skierowany w górę, a malejąco gdy trójkącik jest skierowany w dół. Kliknij kilka razy w nagłówek i sprawdź, czy sortowanie jest poprawne.
-6. Kliknij w nagłówek "Cena" - wyniki powinny być teraz sortowane alfabetycznie wg cenyi produktu - rosnąco, gdy trójkącik jest skierowany w górę, a malejąco gdy trójkącik jest skierowany w dół. Kliknij kilka razy w nagłówek i sprawdź, czy sortowanie jest poprawne.</t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Z lewej strony znajduje się wyszukiwarka. Wpisz w okno wyszukiwania szukaną frazę poprzedzoną dwoma spacjami np. "  krem". Kliknij przycisk "SZUKAJ" lub enter - wyszukiwarka powinna uciąć białe znaki i powinna pojawić się lista produktów odpowiadających wyszukiwanej frazie.
-3. Wróć do okna wyszukiwania i wpisz w nie "rem".  Kliknij przycisk "SZUKAJ" lub enter -  powinna pojawić się lista produktów zawierających w swojej nazwie frazę "rem", np krem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie czy wyszukiwanie zaawansowane działa poprawnie. </t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie, czy wszukiwarka zwraca wyniki tylko odpowiadające kryteriom i czy jeśli danego produktu nie znadzie, to wyświetla się komunikat, że nie znaleziono szukanego produktu.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Z lewej strony znajduje się wyszukiwarka. Kliknij w "Wyszukiwanie zaawansowane" - powinien pojawić się widok wyszukiwarki zaawansowanej. 
-3. W okno wyszukiwarki wpisz "krem", w oknie Kategorie wybierz z rozwijanego menu "Kremy do twarzy Na noc", w oknie Producenci wynierz "BIODERMA", a jako postać "krem". Cenę od ustal na 20, a Cenę do na 150.
-4. Kliknij przycisk "SZUKAJ" - powinna pojawić się lista pasujących produktów spełniających wszystkie kryteria wyszukiwania.
-5. Ponownie przejdź do wyszukiwania zaawansowanego - kryteria wyszukiwania powiny być puste.
-6. Z listy Kategorii wybierz dowolną kategorię i kliknij przycisk "SZUKAJ" - powinna pojawić się lista wyników odpowiadających tylko wybranej kategorii. Powtórz wyszukiwania na kilku kateogriach i sprawdź, czy otrzymane wyniki odpowiadają wybranej kategorii.
-7. Ponownie przejdź do wyszukiwania zaawansowanego - kryteria wyszukiwania powiny być puste.
-8. Z listy Producentów wybierz dowolnego i kliknij przycisk "SZUKAJ" - powinna pojawić się lista wyników z produktami tylko wybranego producenta. Powtórz wyszukiwania dla kilku producentów i sprawdź, czy otrzymane wyniki odpowiadają wybranemu producentowi.
-9. Ponownie przejdź do wyszukiwania zaawansowanego - kryteria wyszukiwania powiny być puste.
-10. Z listy Postaci wybierz dowolną i kliknij przycisk "SZUKAJ" - powinna pojawić się lista wyników z produktami tylko w wybranej postaci. Powtórz wyszukiwania dla kilku dostępnych postaci i sprawdź, czy otrzymane wyniki odpowiadają wybranej postaci.
-11. Ponownie przejdź do wyszukiwania zaawansowanego - kryteria wyszukiwania powiny być puste.
-10. Wybierz zakres cen "od" "do" i kliknij przycisk "SZUKAJ" - powinna pojawić się lista wyników z produktami, których cena zawiera się w wybranym przedziale. Sprawdź, czy wyniki odpowiadają wybranym kryteriom wyszukiwania.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Z lewej strony znajduje się wyszukiwarka. Kliknij w "Wyszukiwanie zaawansowane" - powinien pojawić się widok wyszukiwarki zaawansowanej. 
-3. W okno wyszukiwarki wpisz "krem", a jako postać "aerozol". 
-4. Kliknij przycisk "SZUKAJ" - powinna pojawić się pusta strona z wynikami oraz informacja "Jeśli nie ma produktu, którego szukasz... 
-Koniecznie napisz do nas: apteka@aptekaslonik.pl".
-</t>
-  </si>
-  <si>
-    <t>Pojawienie się pustej strony z wynikami i informacji "Jeśli nie ma produktu, którego szukasz... 
-Koniecznie napisz do nas: apteka@aptekaslonik.pl".</t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Z lewej strony znajduje się wyszukiwarka. Kliknij w "Wyszukiwanie zaawansowane" - powinien pojawić się widok wyszukiwarki zaawansowanej. 
-3. Ustal zakres cenowy: w okno "od" wpisz 100, a "do" 50. Kliknij "SZUKAJ" - powinien pojawić się komunikat informujący o niepoprawnie wybranym zakresie cenowym.
-4. Ustal zakres cenowy: w okno "od" wpisz -10, a "do" -5. Kliknij "SZUKAJ" - powinien pojawić się komunikat informujący o niepoprawnie wybranym zakresie cenowym, ceny nie mogą być ujemne.
-5. Ustal zakres cenowy: w okno "od" wpisz 0, a "do" 0. Kliknij "SZUKAJ" - powinien pojawić się komunikat informujący, że wybrana cena "od" powinna być większa od 0, a cena "do" powinna być większa od ceny "od".</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie walidacji pól wyszukiwarki "od" i "do".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poprawne wykonanie wszystkich kroków reprodukcji i pojawienie się stosownych komunikatów. </t>
-  </si>
-  <si>
-    <t>Data utworzenia: 06.03.2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Próba dodania opinii o produkcie jako niezarejestrowany użytkownik. </t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie, czy niezarejestrowany użytkownik może dodać opinię o dowolnym produkcie.</t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2.  Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
-3. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
-4. Zjedź w dół strony i kliknij przycisk "DODAJ OPINIĘ" - powinien otorzyć sie formularz umożliwiający wystawienie opinii o danym produkcie.
-5. Podaj swój nick i wpisz treść opini. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że tylko zarejestrowany użytkownik może dodać opinię o produkcie.</t>
-  </si>
-  <si>
-    <t>Próba dodania opinii o produkcie jako zalogowany użytkownik o prawach klienta pozostawiając pusty formularz opinii.</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie, czy można dodać opinię o produkcie z pustą treścią i bez podania nicku.</t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
-5. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
-7. Zjedź w dół strony i kliknij przycisk "DODAJ OPINIĘ" - powinien otorzyć sie formularz umożliwiający wystawienie opinii o danym produkcie.
-8. Nie wypełniaj wymaganych pól. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że pola nick i opinia są wymagane.</t>
-  </si>
-  <si>
-    <t>Zapytanie o produkt, którego nie ma na stanie jako zalogowany użytkownik o prawach klienta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pojawienie się komunikatu potwierdzaćacego wysłanie zapytanie o dostępność produktu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Znajdź na stronie dowolny produkt, który nie jest dostępny na stanie - zamiast ceny widnieje przy takim produkcie "Zapytaj o dostępność". Kliknij w tę frazę - powinno Cię przekierować do formularza umożliwiającego zapytanie o dostępność danego produktu.
-5. Wypełnij poprawie formularz i potwierdź wysłanie - powinien pojawić sie komunikat potwierdzający wysłane zapytanie o dostępność produktu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie, czy działa przycisk umożliwiający zapytanie o dostępność produktów, których w danej chwili nie ma na stanie. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zapisz się lub wypisz się z Newslettera jako niezarejestrowany użytkownik lub jako zalogowany użytkownik o prawach klienta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/, którego użytkownik nie jest zapisany do newslettera Apteki Słonik. </t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Z prawej strony widoczny jest panel "Newsletter". W okno w paneli podaj swój adres e-mail (przypisany do konta) i kliknij "ZAPISZ" - powinien pojawić się komunikat potwierdzający zapisanie adresu e-mail do Newslettera.
-5. Ponownie przejdź do panelu "Newsletter". W okno podaj ten sam adres e-mail i kliknij "WYPISZ" - powinien wyświetlić się komunikat potwierdzający wypisanie adresu e-mail z Newslettera.
-6. Wyloguj się ze swojego konta.
-7. Ponownie przejdź do panelu "Newsletter". W okno podaj adres e-mail, który nie jest na liście Newsletterza w Aptece Słonik i kliknij "WPISZ" - powinien wyświetlić się komunikat potwierdzający zapisanie adresu e-mail do Newslettera.
-8. Ponownie przejdź do panelu "Newsletter". W okno podaj ten sam adres e-mail i kliknij "WYPISZ" - powinien wyświetlić się komunikat potwierdzający wypisanie adresu e-mail z Newslettera.</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie poprawnego doawania lub usuwania adresu e-mail do/z Newslettera.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wysłanie zapytania przez formularz "Zapytaj farmaceutę" jako zalogowany użytkownik o prawach klienta lub jako niezarejestrowany użytkownik. </t>
-  </si>
-  <si>
-    <t>Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
-5. Wypełnij poprawnie wymagane dane, wpisz pytanie i kliknij przycisk "Zadaj pytanie" - pownien pojawić się komunikat potwierdzający wysłanie zapytania. 
-6. Wyloguj się ze swojego konta. Ponownie przejdź do formularza "Zapytaj farmaceutę".
-7. Wypełnij poprawnie wymagane dane, wpisz pytanie i kliknij przycisk "Zadaj pytanie" - pownien pojawić się komunikat potwierdzający wysłanie zapytania. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Próba wysłania psutego zapytania przez formularz "Zapytaj farmaceutę" jako zalogowany użytkownik z prawami klienta. </t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie poprawnościi wysyłania zapytania przez formularz "Zapytaj farmaceutę".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pojawienie się komunikatu informującego, że pola Imię i nazwisko, adres e-mail i pytanie są obowiązkowe. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Próba wysłania zapytania przez formularz "Zapytaj farmaceutę" podając nieprawidłowe dane jako zalogowany użytkownik z prawami klienta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie, czy istnieje zabezpieczenie przed wysłaniem pustego zapytania w formularzu "Zapytaj farmaceutę". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie, czy pola w formularzy posiadają walidację. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przypadki testowe zostały napisane dla niezarejestrowanego użytkownika oraz dla zalogowanego użytkownika o prawach klienta. Pominięto przypadki testowe dla administratora ze względu na brak dostępu do konta administratora. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
-5. Pozostaw wszystkie obowiązkowe pola puste i kliknij "Zadaj pytanie" - pownien pojawić się komunikat informujący, że pola Imię i nazwisko, adres e-mail i pytanie są obowiązkowe. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
-5. W pole Imię i nazwisko oraz adres e-mail podaj ciągi znaków składające się tylko z cyfr,  a w treści pytaia wpisz tylko jeden dowolny znak. Kliknij przycisk "Zadaj pytanie" - powinien pojawić się komunikat informujący, że Imię i nazwisko może zawierać tylko litery, adres e-mail musi zawierać znak @ i musi się on pojawić tylko raz, kropka musi pojawić się przynajmniej raz póżniej niż znak @. Pytanie musi zawierać conajmniej 20 znaków. </t>
-  </si>
-  <si>
-    <t>Pojawienie się odpowiedniego komunikatu z punktu 5. kroków reprodukcji.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przeglądanie kategorii produktów, listy firm, produktów według filtru alfabetycznego, opisu produktów i dodawanie opinii o produkcie jako zalogowany użytkownik o prawach klienta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie poprawności przeglądania produktów według kategorii, według firm i według filtra alfabetycznego oraz możliwości dodania opinii o produkcie. </t>
-  </si>
-  <si>
-    <t>Przeglądanie panelu "Informacje" oraz "promocje" jako niezarejestrowany lub zalogowany użytkownik o prawach klienta.</t>
-  </si>
-  <si>
-    <t>Przeglądanie hiperłączy w postaci banerów na stronie głównej jako niezarejestrowany lub zalogowany użytkownik o prawach klienta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Z lewej strony znajduje się panel "Informacje". Klikaj po kolei w hiperłącza zawarte w panelu - powinno Cię przenosić na stronę adekwatną do nazwy hiperłącza. 
-3. Z prawej strony znajduje się panel "Promocje". Klikaj po kolei w hiperłącza zawarte w panelu - powinno Cię przenosić na stronę adekwatną do nazwy hiperłącza. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przejrzenie wszystkich hiperłącz z paneli "Informacje" oraz "Promocje" oraz stwierdzenie poprawnego ich działania. </t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. na stronie głównej apteki, w jej środkowej części, znajduje się wiele hiperłączy w postaci banerów - klikaj po kolei w każdy i sprawdź czy przenosi on na odpowiednią stronę (adekwatną do nazwy/grafiki hiperłącza) oraz sprawdź, czy wszystkie hiperłącza otwierają się w ten sams sposób. 
-3. Powtórz czynność z punktu 2. z hiperłączami znajdującymi się w prawej części strony pod tytułem "Apteka kosmetyki".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprawdzenie i stwierdzenie poprawnego działania wszystkich hiperłączy wymienionych w krokach reprodukcji. </t>
-  </si>
-  <si>
-    <t>Przeglądanie zakładek w głównym menu strony jako dowolny użytkownik.</t>
-  </si>
-  <si>
-    <t>Próba dodania do koszyka bardzo dużej ilości produktów lub zamówienie 0 lub ujemnej ilości danego produktu jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie czy strona posiada zabezpieczenie przed kupnem bardzo duzej ilości produktów lub zamówieniem 0 lub ujemnej ilości produktów. </t>
+    <t xml:space="preserve">Celem testu jest sprawdzenie czy strona posiada zabezpieczenie przed kupnem bardzo dużej ilości produktów lub zamówieniem 0 lub ujemnej ilości produktów. </t>
   </si>
   <si>
     <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
@@ -600,38 +581,78 @@
 4. Zmień ilość produktów na 500. Kliknij przycisk "PRZELICZ" - powinien wyskoczyć komunikat, że jest to za duża liczba produktów.
 5.  Zmień ilość produktów na 0. Kliknij przycisk "PRZELICZ" - liczba produktów powinna się zmienić automatycznie na 1.
 6.  Zmień ilość produktów na -2. Kliknij przycisk "PRZELICZ" - liczba produktów powinna się zmienić automatycznie na 1.
-7. Wykronaj kroki 2-6 różwnież dla zalogowanego użytkownika o prawach klienta.
+7. Wykonaj kroki 2-6 również dla zalogowanego użytkownika o prawach klienta.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Próba wybrania darmowej formy transportu (dostępnej od 169zł) przy zakupach poniżej wymaganej kwoty jako niezarejestrowany użytkownik. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Próba wybrania jako formy transportu kuriera oraz jako formy zapłaty - Zapłata w Aptece Słonik przy osobistym odbiorze jako niezarejestrowany użytkownik. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyszukiwanie proste produktu oraz sortowanie wyników jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyszukiwanie proste produktu po haśle poprzedzonym białym znakiem lub po fragmencie wyrazu jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyszukiwanie zaawansowane produktu jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Próba wyszukiwania zaawansowanego produktu po nazwie i postaci, w której dany produkt nie występuje jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Próba wyszukiwania zaawansowanego produktu wpisując niepoprawny zakres cen jako niezarejestrowany użytkownik lub zalogowany użytkownik o prawach klienta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pojawienie się komunikatu informującego, ze pola nick i opinia są wymagane. </t>
-  </si>
-  <si>
-    <t>Pojawienie się komunikatu informującego, że tylko zarejestrowany użytkownik może dodać opinię o produkcie.</t>
-  </si>
-  <si>
-    <t>Pojawienie się komunikatu informującego, ze opinia została dodana pomyślnie.</t>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Dodaj dowolny dostępny produkt na stronie do koszyka.
+3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
+4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
+5. Nie wpisuj nic tylko kliknij "DALEJ" - powinien pojawić się komunikat "Proszę podać Adresata przesyłki".
+6. Podaj prawidłowe dane adresowe i kliknij "DALEJ" - powinien pojawić się komunikat: "Proszę podać adres e-mail".
+7. Podaj adres e-mail i kliknij "DALEJ" - powinien pojawić się komunikat: "Proszę podać telefon".
+8. Podaj telefon i wciśnij przycisk "DALEJ" - powinno Cię przekierować do podsumowania zamówienia. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Dodaj dowolny dostępny produkt na stronie do koszyka, którego cena jest niższa niż 169zł.
+3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
+4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
+5. Wypełnij poprawnie adres wysyłki i dane kontaktowe. Jako formę transportu wybierz "GRATIS WYSYŁKA - WPŁATA na konto - zakupy powyżej 169zł - POCZTA POLSKA", a jako formę płatności Wpłata na konto.
+6. Kliknij przycisk "DALEJ" - powinien pojawić się komunikat informujący, że należy zamówić towary za minimum 169zł, aby wybrać wybraną formę transportu. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Dodaj dowolny dostępny produkt na stronie do koszyka.
+3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
+4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
+5. Wypełnij poprawnie adres wysyłki i dane kontaktowe. Jako formę transportu wybierz "KURIER UPS - WPŁATA NA KONTO - KURIER UPS ", a jako formę płatności "Zapłata w Aptece Słonik przy osobistym odbiorze ".
+6. Kliknij przycisk "DALEJ" - powinien pojawić się komunikat informujący, że forma płatności i/lub forma transportu zostały niepoprawnie wybrane. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się komunikatu informującego o niepoprawnie wybranej formie transportu i/lub formie płatności. </t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Z lewej strony znajduje się wyszukiwarka. Wpisz w okno wyszukiwania szukaną frazę np. "krem". Kliknij przycisk "SZUKAJ" lub enter - powinna pojawić się lista produktów odpowiadających wyszukiwanej frazie.
+3. Przy nagłówku "Nazwa produktu" widoczny jest biały trójkącik skierowany w górę - lista wyników powinna być sortowana alfabetycznie rosnąco wg nazwy.
+4. Kliknij w nagłówek "Nazwa produktu" - biały trójkącik powinien być teraz skierowany w dół, a wyniki powinny wyświetlać się w kolejności alfabetycznej malejąco wg nazwy.
+5. Kliknij w nagłówek "Postać" - wyniki powinny być teraz sortowane alfabetycznie wg postaci produktu - rosnąco, gdy trójkącik jest skierowany w górę, a malejąco gdy trójkącik jest skierowany w dół. Kliknij kilka razy w nagłówek i sprawdź, czy sortowanie jest poprawne.
+6. Kliknij w nagłówek "Cena" - wyniki powinny być teraz sortowane alfabetycznie wg ceny produktu - rosnąco, gdy trójkącik jest skierowany w górę, a malejąco gdy trójkącik jest skierowany w dół. Kliknij kilka razy w nagłówek i sprawdź, czy sortowanie jest poprawne.</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Z lewej strony znajduje się wyszukiwarka. Wpisz w okno wyszukiwania szukaną frazę poprzedzoną dwoma spacjami np. "  krem". Kliknij przycisk "SZUKAJ" lub enter - wyszukiwarka powinna uciąć białe znaki i powinna pojawić się lista produktów odpowiadających wyszukiwanej frazie.
+3. Wróć do okna wyszukiwania i wpisz w nie "rem".  Kliknij przycisk "SZUKAJ" lub enter -  powinna pojawić się lista produktów zawierających w swojej nazwie frazę "rem", np. krem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Z lewej strony znajduje się wyszukiwarka. Kliknij w "Wyszukiwanie zaawansowane" - powinien pojawić się widok wyszukiwarki zaawansowanej. 
+3. W okno wyszukiwarki wpisz "krem", w oknie Kategorie wybierz z rozwijanego menu "Kremy do twarzy Na noc", w oknie Producenci wybierz "BIODERMA", a jako postać "krem". Cenę od ustal na 20, a Cenę do na 150.
+4. Kliknij przycisk "SZUKAJ" - powinna pojawić się lista pasujących produktów spełniających wszystkie kryteria wyszukiwania.
+5. Ponownie przejdź do wyszukiwania zaawansowanego - kryteria wyszukiwania powinny być puste.
+6. Z listy Kategorii wybierz dowolną kategorię i kliknij przycisk "SZUKAJ" - powinna pojawić się lista wyników odpowiadających tylko wybranej kategorii. Powtórz wyszukiwania na kilku kategoriach i sprawdź, czy otrzymane wyniki odpowiadają wybranej kategorii.
+7. Ponownie przejdź do wyszukiwania zaawansowanego - kryteria wyszukiwania powinny być puste.
+8. Z listy Producentów wybierz dowolnego i kliknij przycisk "SZUKAJ" - powinna pojawić się lista wyników z produktami tylko wybranego producenta. Powtórz wyszukiwania dla kilku producentów i sprawdź, czy otrzymane wyniki odpowiadają wybranemu producentowi.
+9. Ponownie przejdź do wyszukiwania zaawansowanego - kryteria wyszukiwania powinny być puste.
+10. Z listy Postaci wybierz dowolną i kliknij przycisk "SZUKAJ" - powinna pojawić się lista wyników z produktami tylko w wybranej postaci. Powtórz wyszukiwania dla kilku dostępnych postaci i sprawdź, czy otrzymane wyniki odpowiadają wybranej postaci.
+11. Ponownie przejdź do wyszukiwania zaawansowanego - kryteria wyszukiwania powinny być puste.
+10. Wybierz zakres cen "od" "do" i kliknij przycisk "SZUKAJ" - powinna pojawić się lista wyników z produktami, których cena zawiera się w wybranym przedziale. Sprawdź, czy wyniki odpowiadają wybranym kryteriom wyszukiwania.
+</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie, czy wyszukiwarka zwraca wyniki tylko odpowiadające kryteriom i czy jeśli danego produktu nie znajdzie, to wyświetla się komunikat, że nie znaleziono szukanego produktu.</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2.  Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
+3. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
+4. Zjedź w dół strony i kliknij przycisk "DODAJ OPINIĘ" - powinien otworzyć się formularz umożliwiający wystawienie opinii o danym produkcie.
+5. Podaj swój Nick i wpisz treść opinii. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że tylko zarejestrowany użytkownik może dodać opinię o produkcie.</t>
   </si>
   <si>
     <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
@@ -639,119 +660,111 @@
 3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
 4. Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
 5. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
-6. Kliknij na zdjęcie produktu - powinno zostać powiększone.
-7. Z lewej strony znajduje się panel "Lista firm". Wybierz z rozwijanego menu dowolną firmę i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej firmy. 
-8. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
-9. Kliknij na zdjęcie produktu - powinno zostać powiększone.
-10. Z lewej strony znajduje się panel "Alfabetycznie". Wybierz wybierz dowolą literę i w nią kliknij - powinno Cię przekierować do strony z produktami o nazwie rozpoczynającej się na wybraną literę. 
-11. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
-12. Zjedź w dół strony i kliknij przycisk "DODAJ OPINIĘ" - powinien otorzyć sie formularz umożliwiający wystawienie opinii o danym produkcie.
-13. Podaj wymyślony nick i wpisz treść opini. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że opinia została pomyślnie dodana.</t>
-  </si>
-  <si>
-    <t>SłTC-001</t>
-  </si>
-  <si>
-    <t>SłTC-002</t>
-  </si>
-  <si>
-    <t>SłTC-003</t>
-  </si>
-  <si>
-    <t>SłTC-004</t>
-  </si>
-  <si>
-    <t>SłTC-005</t>
-  </si>
-  <si>
-    <t>SłTC-006</t>
-  </si>
-  <si>
-    <t>SłTC-007</t>
-  </si>
-  <si>
-    <t>SłTC-008</t>
-  </si>
-  <si>
-    <t>SłTC-009</t>
-  </si>
-  <si>
-    <t>SłTC-010</t>
-  </si>
-  <si>
-    <t>SłTC-011</t>
-  </si>
-  <si>
-    <t>SłTC-012</t>
-  </si>
-  <si>
-    <t>SłTC-013</t>
-  </si>
-  <si>
-    <t>SłTC-014</t>
-  </si>
-  <si>
-    <t>SłTC-015</t>
-  </si>
-  <si>
-    <t>SłTC-016</t>
-  </si>
-  <si>
-    <t>SłTC-017</t>
-  </si>
-  <si>
-    <t>SłTC-018</t>
-  </si>
-  <si>
-    <t>SłTC-019</t>
-  </si>
-  <si>
-    <t>SłTC-020</t>
-  </si>
-  <si>
-    <t>SłTC-021</t>
-  </si>
-  <si>
-    <t>SłTC-022</t>
-  </si>
-  <si>
-    <t>SłTC-023</t>
-  </si>
-  <si>
-    <t>SłTC-024</t>
-  </si>
-  <si>
-    <t>SłTC-025</t>
-  </si>
-  <si>
-    <t>SłTC-026</t>
-  </si>
-  <si>
-    <t>SłTC-027</t>
-  </si>
-  <si>
-    <t>SłTC-028</t>
-  </si>
-  <si>
-    <t>SłTC-029</t>
-  </si>
-  <si>
-    <t>SłTC-030</t>
-  </si>
-  <si>
-    <t>SłTC-031</t>
-  </si>
-  <si>
-    <t>SłTC-032</t>
-  </si>
-  <si>
-    <t>SłTC-033</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie popraności działania hiperłączy w panelach "informacje" oraz "promocje".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie popraności działania hiperłączy na stronie głównej. </t>
+7. Zjedź w dół strony i kliknij przycisk "DODAJ OPINIĘ" - powinien otworzyć się formularz umożliwiający wystawienie opinii o danym produkcie.
+8. Nie wypełniaj wymaganych pól. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że pola nick i opinia są wymagane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
+3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+4. Znajdź na stronie dowolny produkt, który nie jest dostępny na stanie - zamiast ceny widnieje przy takim produkcie "Zapytaj o dostępność". Kliknij w tę frazę - powinno Cię przekierować do formularza umożliwiającego zapytanie o dostępność danego produktu.
+5. Wypełnij poprawie formularz i potwierdź wysłanie - powinien pojawić się komunikat potwierdzający wysłane zapytanie o dostępność produktu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się komunikatu potwierdzającego wysłanie zapytanie o dostępność produktu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapisz się lub wypisz się z Newsletteru jako niezarejestrowany użytkownik lub jako zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawnego dodawania lub usuwania adresu e-mail do/z Newsletteru.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/, którego użytkownik nie jest zapisany do newsletteru Apteki Słonik. </t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności wysyłania zapytania przez formularz "Zapytaj farmaceutę".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
+3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+4. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
+5. Wypełnij poprawnie wymagane dane, wpisz pytanie i kliknij przycisk "Zadaj pytanie" - powinien pojawić się komunikat potwierdzający wysłanie zapytania. 
+6. Wyloguj się ze swojego konta. Ponownie przejdź do formularza "Zapytaj farmaceutę".
+7. Wypełnij poprawnie wymagane dane, wpisz pytanie i kliknij przycisk "Zadaj pytanie" - powinien pojawić się komunikat potwierdzający wysłanie zapytania. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
+3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+4. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
+5. Pozostaw wszystkie obowiązkowe pola puste i kliknij "Zadaj pytanie" - powinien pojawić się komunikat informujący, że pola Imię i nazwisko, adres e-mail i pytanie są obowiązkowe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
+3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+4. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
+5. W pole Imię i nazwisko oraz adres e-mail podaj ciągi znaków składające się tylko z cyfr,  a w treści pytania wpisz tylko jeden dowolny znak. Kliknij przycisk "Zadaj pytanie" - powinien pojawić się komunikat informujący, że Imię i nazwisko może zawierać tylko litery, adres e-mail musi zawierać znak @ i musi się on pojawić tylko raz, kropka musi pojawić się przynajmniej raz później niż znak @. Pytanie musi zawierać co najmniej 20 znaków. </t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania hiperłączy w panelach "informacje" oraz "promocje".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przejrzenie wszystkich hiperłącza z paneli "Informacje" oraz "Promocje" oraz stwierdzenie poprawnego ich działania. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie poprawności działania hiperłączy na stronie głównej. </t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Na stronie głównej apteki, w jej środkowej części, znajduje się wiele hiperłączy w postaci banerów - klikaj po kolei w każdy i sprawdź czy przenosi on na odpowiednią stronę (adekwatną do nazwy/grafiki hiperłącza) oraz sprawdź, czy wszystkie hiperłącza otwierają się w ten sam sposób. 
+3. Powtórz czynność z punktu 2. z hiperłączami znajdującymi się w prawej części strony pod tytułem "Apteka kosmetyki".</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
+3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+4. Z prawej strony widoczny jest panel "Newsletter". W okno w paneli podaj swój adres e-mail (przypisany do konta) i kliknij "ZAPISZ" - powinien pojawić się komunikat potwierdzający zapisanie adresu e-mail do Newsletteru.
+5. Ponownie przejdź do panelu "Newsletter". W okno podaj ten sam adres e-mail i kliknij "WYPISZ" - powinien wyświetlić się komunikat potwierdzający wypisanie adresu e-mail z Newsletteru.
+6. Wyloguj się ze swojego konta.
+7. Ponownie przejdź do panelu "Newsletter". W okno podaj adres e-mail, który nie jest na liście Newsletteru w Aptece Słonik i kliknij "WPISZ" - powinien wyświetlić się komunikat potwierdzający zapisanie adresu e-mail do Newsletteru.
+8. Ponownie przejdź do panelu "Newsletter". W okno podaj ten sam adres e-mail i kliknij "WYPISZ" - powinien wyświetlić się komunikat potwierdzający wypisanie adresu e-mail z Newsletteru.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodanie opinii o produkcie jako zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie poprawności dodania opinii o produkcie. </t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
+3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+4. Wybierz dowolny produkt z oferty sklepu i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
+5. Zjedź w dół strony i kliknij przycisk "DODAJ OPINIĘ" - powinien otworzyć się formularz umożliwiający wystawienie opinii o danym produkcie.
+6. Podaj wymyślony nick i wpisz treść opinii. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że opinia została pomyślnie dodana.</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności przeglądania produktów według kategorii, według firm i według filtra alfabetycznego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przeglądanie kategorii produktów, listy firm i  produktów według filtru alfabetycznego jako zalogowany użytkownik o prawach klienta lub jako niezarejestrowany użytkownik. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
+3. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
+4. Kliknij na zdjęcie produktu - powinno zostać powiększone.
+5. Z lewej strony znajduje się panel "Lista firm". Wybierz z rozwijanego menu dowolną firmę i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej firmy. 
+6. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
+7. Kliknij na zdjęcie produktu - powinno zostać powiększone.
+8. Z lewej strony znajduje się panel "Alfabetycznie". Wybierz dowolną literę i w nią kliknij - powinno Cię przekierować do strony z produktami o nazwie rozpoczynającej się na wybraną literę. 
+</t>
+  </si>
+  <si>
+    <t>SłTC-034</t>
   </si>
 </sst>
 </file>
@@ -829,14 +842,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1153,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0E64A6-3C5F-48B1-90B9-B19DB003C10F}">
-  <dimension ref="C1:K47"/>
+  <dimension ref="C1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,22 +1185,22 @@
   <sheetData>
     <row r="1" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
@@ -1216,10 +1229,10 @@
     </row>
     <row r="5" spans="3:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -1239,7 +1252,7 @@
     </row>
     <row r="6" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
@@ -1262,7 +1275,7 @@
     </row>
     <row r="7" spans="3:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -1285,19 +1298,19 @@
     </row>
     <row r="8" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>14</v>
@@ -1308,20 +1321,20 @@
     </row>
     <row r="9" spans="3:11" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
@@ -1329,22 +1342,22 @@
     </row>
     <row r="10" spans="3:11" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
@@ -1352,17 +1365,17 @@
     </row>
     <row r="11" spans="3:11" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
@@ -1371,20 +1384,20 @@
     </row>
     <row r="12" spans="3:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
@@ -1392,22 +1405,22 @@
     </row>
     <row r="13" spans="3:11" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
@@ -1415,22 +1428,22 @@
     </row>
     <row r="14" spans="3:11" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
@@ -1438,22 +1451,22 @@
     </row>
     <row r="15" spans="3:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
@@ -1461,20 +1474,20 @@
     </row>
     <row r="16" spans="3:11" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
@@ -1482,20 +1495,20 @@
     </row>
     <row r="17" spans="3:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
@@ -1503,22 +1516,22 @@
     </row>
     <row r="18" spans="3:11" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
@@ -1526,22 +1539,22 @@
     </row>
     <row r="19" spans="3:11" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
@@ -1549,20 +1562,20 @@
     </row>
     <row r="20" spans="3:11" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
@@ -1570,20 +1583,20 @@
     </row>
     <row r="21" spans="3:11" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
@@ -1591,20 +1604,20 @@
     </row>
     <row r="22" spans="3:11" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
@@ -1612,20 +1625,20 @@
     </row>
     <row r="23" spans="3:11" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
@@ -1633,20 +1646,20 @@
     </row>
     <row r="24" spans="3:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
@@ -1654,20 +1667,20 @@
     </row>
     <row r="25" spans="3:11" ht="288" x14ac:dyDescent="0.3">
       <c r="C25" s="3" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
@@ -1675,20 +1688,20 @@
     </row>
     <row r="26" spans="3:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
@@ -1696,297 +1709,311 @@
     </row>
     <row r="27" spans="3:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:11" ht="274.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="3:11" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G29" s="3" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="3:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="3:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C31" s="3" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="3:11" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="3:11" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:11" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="3:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="3:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C35" s="3" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="3:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:11" ht="144" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="G36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="3:11" ht="72" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="3:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
+    <row r="38" spans="3:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.3">
@@ -2024,6 +2051,15 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Apteka Słonik - przypadki testowe.xlsx
+++ b/Apteka Słonik - przypadki testowe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulina1\Documents\Paulina\cherry IT kurs\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB982C5F-2670-4F01-BF3A-8420FC7B0E99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C0A371-C221-4460-88A2-3EA9A3E3E172}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{AB1AB39C-E731-44E5-9F2C-6E1CC1ADA555}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -57,22 +57,12 @@
     <t>Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/</t>
   </si>
   <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta.</t>
-  </si>
-  <si>
     <t>Poprawne zalogowanie się na stronie i przekierowanie do Twojego konta.</t>
   </si>
   <si>
     <t>Celem testu jest sprawdzenie, czy można się zalogować do systemu podając niepoprawne hasło.</t>
   </si>
   <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i niepoprawne hasło i kliknij przycisk "ZALOGUJ" - powinien pojawić się czerwony komunikat "Błędny identyfikator lub hasło".</t>
-  </si>
-  <si>
     <t>Pojawienie się komunikatu "Błędny identyfikator lub hasło".</t>
   </si>
   <si>
@@ -85,17 +75,7 @@
     <t>Celem testu jest sprawdzenie, czy można się zalogować do systemu podając niepoprawny login.</t>
   </si>
   <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź niepoprawny login i poprawne hasło i kliknij przycisk "ZALOGUJ" - powinien pojawić się czerwony komunikat "Błędny identyfikator lub hasło".</t>
-  </si>
-  <si>
     <t>Próba zalogowania się do systemu jako klient podając niepoprawny login i niepoprawne hasło.</t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź niepoprawny login i niepoprawne hasło i kliknij przycisk "ZALOGUJ" - powinien pojawić się czerwony komunikat "Błędny identyfikator lub hasło".</t>
   </si>
   <si>
     <t>Poprawna rejestracja w systemie jak klient.</t>
@@ -171,13 +151,7 @@
     <t>Poprawne wykonanie wszystkich kroków reprodukcji.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zrobienie zamówienia jako niezarejestrowany użytkownik. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Celem testu jest poprawne dokonanie zamówienia jako niezarejestrowany użytkownik. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zrobienie zamówienia jako zalogowany użytkownik o prawach klienta. </t>
   </si>
   <si>
     <t xml:space="preserve">Celem testu jest poprawne dokonanie zamówienia jako zalogowany użytkownik o prawach klienta. </t>
@@ -276,9 +250,6 @@
   </si>
   <si>
     <t>Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Próba wysłania psutego zapytania przez formularz "Zapytaj farmaceutę" jako zalogowany użytkownik z prawami klienta. </t>
   </si>
   <si>
     <t xml:space="preserve">Pojawienie się komunikatu informującego, że pola Imię i nazwisko, adres e-mail i pytanie są obowiązkowe. </t>
@@ -473,44 +444,187 @@
     <t>Celem testu jest sprawdzenie, czy można się zalogować do systemu podając niepoprawne dane do logowania.</t>
   </si>
   <si>
+    <t>Pojawienie się wszystkich komunikatów z kroków reprodukcji.</t>
+  </si>
+  <si>
+    <t>Próba zmiany hasła wpisując za krótkie hasło lub błędnie powtarzając nowe hasło.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Wybierz przycisk "TWÓJ KOSZYK" w głównym menu strony - powinno Cię przekierować do widoku Twojego koszyka.
+3. Wybierz przycisk "O APTECE" w głównym menu strony - powinno Cię przekierować do podstrony z informacjami o aptece.
+4. Wybierz przycisk "BEZPIECZEŃSTWO" w głównym menu strony - powinno Cię przekierować do podstrony z informacjami o bezpieczeństwie w Aptece Słonik.
+5. Wybierz przycisk "REGULAMIN" w głównym menu strony - powinno Cię przekierować do podstrony z regulaminem w Aptece Słonik.
+6. Wybierz przycisk "PŁATNOŚCI" w głównym menu strony - powinno Cię przekierować do podstrony z informacjami o dostępnych metodach płatności. Zjedź niżej i kliknij w "OPCJE DOSTAW ZAMÓWIEŃ - ZOBACZ" - powinno Cię przekierować do strony z informacjami dotyczącymi dostawy.
+7. Wybierz przycisk "DOSTAWA" w głównym menu strony - powinna otworzyć się ponownie strona z informacjami dotyczącymi dostawy.
+8. Zjedź w dół strony, pod tabelą "PRZESYŁKI NA TERENIE POLSKI" widnieje link "odbiorwpunkcie.poczta-polska.pl", kliknij w niego - w nowej karcie powinna się otworzyć strona Poczty Polskiej umożliwiająca wyszukanie punktów odbioru. Zamknij zakładkę z tą stroną.
+9. Wybierz przycisk "FAQ" w głównym menu strony - powinno Cię przekierować do podstrony z najczęściej zadawanymi pytaniami.
+10. Kliknij w link "POMOC" - powinna otworzyć się podstrona z informacjami dotyczącymi pomocy w korzystaniu ze strony Apteki Słonik.
+11. Wybierz przycisk "POMOC" w głównym menu strony - powinna otworzyć się ponownie strona z informacjami dotyczącymi pomocy.
+12. Wybierz przycisk "KONTAKT" w głównym menu strony - powinno Cię przekierować do strony zawierającej dane kontaktowe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się komunikatu potwierdzającego złożenie zamówienia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie czy strona posiada zabezpieczenie przed kupnem bardzo dużej ilości produktów lub zamówieniem 0 lub ujemnej ilości produktów. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Dodaj dowolny dostępny produkt na stronie do koszyka.
+3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
+4. Zmień ilość produktów na 500. Kliknij przycisk "PRZELICZ" - powinien wyskoczyć komunikat, że jest to za duża liczba produktów.
+5.  Zmień ilość produktów na 0. Kliknij przycisk "PRZELICZ" - liczba produktów powinna się zmienić automatycznie na 1.
+6.  Zmień ilość produktów na -2. Kliknij przycisk "PRZELICZ" - liczba produktów powinna się zmienić automatycznie na 1.
+7. Wykonaj kroki 2-6 również dla zalogowanego użytkownika o prawach klienta.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Dodaj dowolny dostępny produkt na stronie do koszyka.
+3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
+4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
+5. Nie wpisuj nic tylko kliknij "DALEJ" - powinien pojawić się komunikat "Proszę podać Adresata przesyłki".
+6. Podaj prawidłowe dane adresowe i kliknij "DALEJ" - powinien pojawić się komunikat: "Proszę podać adres e-mail".
+7. Podaj adres e-mail i kliknij "DALEJ" - powinien pojawić się komunikat: "Proszę podać telefon".
+8. Podaj telefon i wciśnij przycisk "DALEJ" - powinno Cię przekierować do podsumowania zamówienia. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Dodaj dowolny dostępny produkt na stronie do koszyka, którego cena jest niższa niż 169zł.
+3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
+4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
+5. Wypełnij poprawnie adres wysyłki i dane kontaktowe. Jako formę transportu wybierz "GRATIS WYSYŁKA - WPŁATA na konto - zakupy powyżej 169zł - POCZTA POLSKA", a jako formę płatności Wpłata na konto.
+6. Kliknij przycisk "DALEJ" - powinien pojawić się komunikat informujący, że należy zamówić towary za minimum 169zł, aby wybrać wybraną formę transportu. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Dodaj dowolny dostępny produkt na stronie do koszyka.
+3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
+4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
+5. Wypełnij poprawnie adres wysyłki i dane kontaktowe. Jako formę transportu wybierz "KURIER UPS - WPŁATA NA KONTO - KURIER UPS ", a jako formę płatności "Zapłata w Aptece Słonik przy osobistym odbiorze ".
+6. Kliknij przycisk "DALEJ" - powinien pojawić się komunikat informujący, że forma płatności i/lub forma transportu zostały niepoprawnie wybrane. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się komunikatu informującego o niepoprawnie wybranej formie transportu i/lub formie płatności. </t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Z lewej strony znajduje się wyszukiwarka. Wpisz w okno wyszukiwania szukaną frazę np. "krem". Kliknij przycisk "SZUKAJ" lub enter - powinna pojawić się lista produktów odpowiadających wyszukiwanej frazie.
+3. Przy nagłówku "Nazwa produktu" widoczny jest biały trójkącik skierowany w górę - lista wyników powinna być sortowana alfabetycznie rosnąco wg nazwy.
+4. Kliknij w nagłówek "Nazwa produktu" - biały trójkącik powinien być teraz skierowany w dół, a wyniki powinny wyświetlać się w kolejności alfabetycznej malejąco wg nazwy.
+5. Kliknij w nagłówek "Postać" - wyniki powinny być teraz sortowane alfabetycznie wg postaci produktu - rosnąco, gdy trójkącik jest skierowany w górę, a malejąco gdy trójkącik jest skierowany w dół. Kliknij kilka razy w nagłówek i sprawdź, czy sortowanie jest poprawne.
+6. Kliknij w nagłówek "Cena" - wyniki powinny być teraz sortowane alfabetycznie wg ceny produktu - rosnąco, gdy trójkącik jest skierowany w górę, a malejąco gdy trójkącik jest skierowany w dół. Kliknij kilka razy w nagłówek i sprawdź, czy sortowanie jest poprawne.</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Z lewej strony znajduje się wyszukiwarka. Wpisz w okno wyszukiwania szukaną frazę poprzedzoną dwoma spacjami np. "  krem". Kliknij przycisk "SZUKAJ" lub enter - wyszukiwarka powinna uciąć białe znaki i powinna pojawić się lista produktów odpowiadających wyszukiwanej frazie.
+3. Wróć do okna wyszukiwania i wpisz w nie "rem".  Kliknij przycisk "SZUKAJ" lub enter -  powinna pojawić się lista produktów zawierających w swojej nazwie frazę "rem", np. krem.</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie, czy wyszukiwarka zwraca wyniki tylko odpowiadające kryteriom i czy jeśli danego produktu nie znajdzie, to wyświetla się komunikat, że nie znaleziono szukanego produktu.</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2.  Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
+3. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
+4. Zjedź w dół strony i kliknij przycisk "DODAJ OPINIĘ" - powinien otworzyć się formularz umożliwiający wystawienie opinii o danym produkcie.
+5. Podaj swój Nick i wpisz treść opinii. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że tylko zarejestrowany użytkownik może dodać opinię o produkcie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pojawienie się komunikatu potwierdzającego wysłanie zapytanie o dostępność produktu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapisz się lub wypisz się z Newsletteru jako niezarejestrowany użytkownik lub jako zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawnego dodawania lub usuwania adresu e-mail do/z Newsletteru.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/, którego użytkownik nie jest zapisany do newsletteru Apteki Słonik. </t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności wysyłania zapytania przez formularz "Zapytaj farmaceutę".</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania hiperłączy w panelach "informacje" oraz "promocje".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przejrzenie wszystkich hiperłącza z paneli "Informacje" oraz "Promocje" oraz stwierdzenie poprawnego ich działania. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie poprawności działania hiperłączy na stronie głównej. </t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Na stronie głównej apteki, w jej środkowej części, znajduje się wiele hiperłączy w postaci banerów - klikaj po kolei w każdy i sprawdź czy przenosi on na odpowiednią stronę (adekwatną do nazwy/grafiki hiperłącza) oraz sprawdź, czy wszystkie hiperłącza otwierają się w ten sam sposób. 
+3. Powtórz czynność z punktu 2. z hiperłączami znajdującymi się w prawej części strony pod tytułem "Apteka kosmetyki".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dodanie opinii o produkcie jako zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie poprawności dodania opinii o produkcie. </t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności przeglądania produktów według kategorii, według firm i według filtra alfabetycznego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przeglądanie kategorii produktów, listy firm i  produktów według filtru alfabetycznego jako zalogowany użytkownik o prawach klienta lub jako niezarejestrowany użytkownik. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
+3. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
+4. Kliknij na zdjęcie produktu - powinno zostać powiększone.
+5. Z lewej strony znajduje się panel "Lista firm". Wybierz z rozwijanego menu dowolną firmę i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej firmy. 
+6. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
+7. Kliknij na zdjęcie produktu - powinno zostać powiększone.
+8. Z lewej strony znajduje się panel "Alfabetycznie". Wybierz dowolną literę i w nią kliknij - powinno Cię przekierować do strony z produktami o nazwie rozpoczynającej się na wybraną literę. 
+</t>
+  </si>
+  <si>
+    <t>SłTC-034</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź niepoprawny login i poprawne hasło i kliknij przycisk "ZALOGUJ" - powinien pojawić się czerwony komunikat "Błędny identyfikator lub hasło".</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i niepoprawne hasło i kliknij przycisk "ZALOGUJ" - powinien pojawić się czerwony komunikat "Błędny identyfikator lub hasło".</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta.</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź niepoprawny login i niepoprawne hasło i kliknij przycisk "ZALOGUJ" - powinien pojawić się czerwony komunikat "Błędny identyfikator lub hasło".</t>
+  </si>
+  <si>
+    <t>Posiadanie adresu email, który nie był jeszcze rejestrowany na stronie http://www.aptekaslonik.pl/.</t>
+  </si>
+  <si>
     <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
 2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Na dole okna znajdź słowo "Rejestracja" i kliknij w nie - powinno nastąpić przekierowanie do formularza rejestracyjnego.
-3. We wszystkie wymagane pole wpisz 3-znakowy ciąg znaków składający się z cyfr i znaków specjalnych, np. "1#9". Kliknij przycisk "ZAREJESTRUJ SIĘ" - powinien pojawić się komunikat informujący, że: pola Imię, Nazwisko i Miejscowość mogą zawierać tylko litery (minimum 3); pole Hasło i Powtórz hasło powinny zawierać minimum 4 znaki; pole Ulica i nr domu musi zawierać przynamniej trzy litery i przynajmniej jedną cyfrę; Adres e-mail powinien zawierać znak "@"; Pole kod pocztowy powinno zawierać tylko cyfry w formacie XX-XXX, a pole Nr telefonu powinno zawierać 9 cyfr.</t>
-  </si>
-  <si>
-    <t>Pojawienie się wszystkich komunikatów z kroków reprodukcji.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Przejrzyj listę zamówień. Po kliknięciu w wybrane zamówienie powinny wyświetlić się szczegóły zamówienia.
-5. W prawym górnym rogu strony, pod panelem "Moje konto", kliknij w "Moje dane" - powinny wyświetlić się Twoje dane.
-6. Zmień swój adres i numer telefonu wpisując poprawne dane. Kliknij przycisk "Zapisz zmiany" - powinien pojawić się komunikat "Sukces Dane zostały poprawnie zmienione".
-7. Z panelu "Moje konto" wybierz "Zmiana hasła" - powinien pojawić się formularz umożliwiający zmianę hasła.
-8. Wpisz poprawne stare hasło  w pierwszym oknie, a  w dwóch kolejnych poprawne nowe hasło (musi zawierać co najmniej 4 znaki). Kliknij przycisk "Zapisz".
-9. Powinien wyświetlić się komunikat: "Sukces Hasło zostało poprawnie zmienione".
-10. Kliknij przycisk "Wyloguj" w panelu "Moje konto" - powinno nastąpić prawidłowe wylogowanie się ze strony.
-</t>
+3. We wszystkie wymagane pole wpisz 3-znakowy ciąg znaków składający się z cyfr i znaków specjalnych, np. "1#9". Kliknij przycisk "ZAREJESTRUJ SIĘ" - powinien pojawić się komunikat informujący, że: pola Imię, Nazwisko i Miejscowość mogą zawierać tylko litery (minimum 3); pole Hasło i Powtórz hasło powinny zawierać minimum 4 znaki; pole Ulica i nr domu musi zawierać przynajmniej trzy litery i przynajmniej jedną cyfrę; Adres e-mail powinien zawierać znak "@"; Pole kod pocztowy powinno zawierać tylko cyfry w formacie XX-XXX, a pole Nr telefonu powinno zawierać 9 cyfr.</t>
   </si>
   <si>
     <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. W prawym górnym rogu strony, pod panelem "Moje konto", kliknij w "Moje dane" - powinny wyświetlić się Twoje dane.
-5. W pola: Imię, Nazwisko, Ulica i nr domu i Miejscowość wpisz ciągi znaków składające się z samych cyfr i znaków specjalnych. W pole Adres e-mail wpisz same litery. W pola Kod pocztowy i Telefon wpisz ciągi znaków składające się z liter i znaków specjalnych. Kliknij przycisk "Zapisz".
-6. Powinien pojawić się komunikat informujący, że: pola Imię, Nazwisko i Miejscowość mogą zawierać tylko litery (minimum 3); pole Ulica i nr domu musi zawierać przynamniej trzy litery i przynajmniej jedną cyfrę; Adres e-mail powinien zawierać znak "@"; Pole kod pocztowy powinno zawierać tylko cyfry w formacie XX-XXX, a pole Nr telefonu powinno zawierać 9 cyfr.</t>
-  </si>
-  <si>
-    <t>Próba zmiany hasła wpisując za krótkie hasło lub błędnie powtarzając nowe hasło.</t>
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+3. W prawym górnym rogu strony, pod panelem "Moje konto", kliknij w "Moje dane" - powinny wyświetlić się Twoje dane.
+4. W pola: Imię, Nazwisko, Ulica i nr domu i Miejscowość wpisz ciągi znaków składające się z samych cyfr i znaków specjalnych. W pole Adres e-mail wpisz same litery. W pola Kod pocztowy i Telefon wpisz ciągi znaków składające się z liter i znaków specjalnych. Kliknij przycisk "Zapisz" - powinien pojawić się komunikat informujący, że: pola Imię, Nazwisko i Miejscowość mogą zawierać tylko litery (minimum 3); pole Ulica i nr domu musi zawierać przynajmniej trzy litery i przynajmniej jedną cyfrę; Adres e-mail powinien zawierać znak "@"; Pole kod pocztowy powinno zawierać tylko cyfry w formacie XX-XXX, a pole Nr telefonu powinno zawierać 9 cyfr.</t>
   </si>
   <si>
     <r>
       <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. W prawym górnym rogu strony, pod panelem "Moje konto", kliknij w "Zmiana hasła" - powinien wyświetlić się formularz umożliwiający zmianę obecnego hasła.
-5. W pole "Stare hasło: podaj stare hasło. W pole "Nowe hasło" wpisz hasło krótsze niż 4 znaki. Powtórz nowe hasło w kolejnym oknie. Kliknij przycisk "Zapisz" - powinien pojawić się komunikat: "Błąd - Hasło musi zawierać co najmniej 4 znaki".</t>
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+3. W prawym górnym rogu strony, pod panelem "Moje konto", kliknij w "Zmiana hasła" - powinien wyświetlić się formularz umożliwiający zmianę obecnego hasła.
+4. W pole "Stare hasło: podaj stare hasło. W pole "Nowe hasło" wpisz hasło krótsze niż 4 znaki. Powtórz nowe hasło w kolejnym oknie. Kliknij przycisk "Zapisz" - powinien pojawić się komunikat: "Błąd - Hasło musi zawierać co najmniej 4 znaki".</t>
     </r>
     <r>
       <rPr>
@@ -534,26 +648,18 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">6. W pierwsze pole "Nowe hasło" wpisz teraz hasło składające się z minimum 4 znaków. W kolejne pole wpisz inne hasło. Kliknij przycisk "Zapisz" - powinien wyświetlić się komunikat "Błąd - Hasło i jego powtórzenie są różne".
+      <t xml:space="preserve">5. W pierwsze pole "Nowe hasło" wpisz teraz hasło składające się z minimum 4 znaków. W kolejne pole wpisz inne hasło. Kliknij przycisk "Zapisz" - powinien wyświetlić się komunikat "Błąd - Hasło i jego powtórzenie są różne".
 </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Wybierz przycisk "TWÓJ KOSZYK" w głównym menu strony - powinno Cię przekierować do widoku Twojego koszyka.
-3. Wybierz przycisk "O APTECE" w głównym menu strony - powinno Cię przekierować do podstrony z informacjami o aptece.
-4. Wybierz przycisk "BEZPIECZEŃSTWO" w głównym menu strony - powinno Cię przekierować do podstrony z informacjami o bezpieczeństwie w Aptece Słonik.
-5. Wybierz przycisk "REGULAMIN" w głównym menu strony - powinno Cię przekierować do podstrony z regulaminem w Aptece Słonik.
-6. Wybierz przycisk "PŁATNOŚCI" w głównym menu strony - powinno Cię przekierować do podstrony z informacjami o dostępnych metodach płatności. Zjedź niżej i kliknij w "OPCJE DOSTAW ZAMÓWIEŃ - ZOBACZ" - powinno Cię przekierować do strony z informacjami dotyczącymi dostawy.
-7. Wybierz przycisk "DOSTAWA" w głównym menu strony - powinna otworzyć się ponownie strona z informacjami dotyczącymi dostawy.
-8. Zjedź w dół strony, pod tabelą "PRZESYŁKI NA TERENIE POLSKI" widnieje link "odbiorwpunkcie.poczta-polska.pl", kliknij w niego - w nowej karcie powinna się otworzyć strona Poczty Polskiej umożliwiająca wyszukanie punktów odbioru. Zamknij zakładkę z tą stroną.
-9. Wybierz przycisk "FAQ" w głównym menu strony - powinno Cię przekierować do podstrony z najczęściej zadawanymi pytaniami.
-10. Kliknij w link "POMOC" - powinna otworzyć się podstrona z informacjami dotyczącymi pomocy w korzystaniu ze strony Apteki Słonik.
-11. Wybierz przycisk "POMOC" w głównym menu strony - powinna otworzyć się ponownie strona z informacjami dotyczącymi pomocy.
-12. Wybierz przycisk "KONTAKT" w głównym menu strony - powinno Cię przekierować do strony zawierającej dane kontaktowe. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pojawienie się komunikatu potwierdzającego złożenie zamówienia. </t>
+    <t>Posiadanie aktywnego adresu email.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Złożenie zamówienia jako zalogowany użytkownik o prawach klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Złożenie zamówienia jako niezarejestrowany użytkownik. </t>
   </si>
   <si>
     <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
@@ -561,7 +667,7 @@
 3. Dodaj dwa dowolne różne dostępne produkty do koszyka.
 4. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
 5. Zmień ilość produktów w pierwszej pozycji na 2. Kliknij przycisk "PRZELICZ" - cena za produkty powinna być przeliczona.
-6. Usuń drugi przedmiot z koszyka zaznaczając check box obok danej pozycji o klikając "PRZELICZ".
+6. Usuń drugi przedmiot z koszyka zaznaczając check box obok danej pozycji klikając "PRZELICZ".
 7. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy wypełniony danymi zapisanymi podczas rejestracji i opcje wysyłki.
 8. Wybierz formę dostawy oraz formę płatności, dane kontaktowe powinny być automatycznie wypełnione danymi zapisanymi podczas rejestracji konta. 
 9. Kliknij przycisk "DALEJ" - powinno pojawić się podsumowanie całego zamówienia, wprowadzonych danych do wysyłki, do kontaktu, wybór dostawy i płatności.
@@ -572,62 +678,7 @@
 14. Kliknij przycisk "ZREALIZUJ ZAMÓWIENIE" - powinien pojawić się komunikat potwierdzający złożenie zamówienia. </t>
   </si>
   <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie czy strona posiada zabezpieczenie przed kupnem bardzo dużej ilości produktów lub zamówieniem 0 lub ujemnej ilości produktów. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Dodaj dowolny dostępny produkt na stronie do koszyka.
-3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
-4. Zmień ilość produktów na 500. Kliknij przycisk "PRZELICZ" - powinien wyskoczyć komunikat, że jest to za duża liczba produktów.
-5.  Zmień ilość produktów na 0. Kliknij przycisk "PRZELICZ" - liczba produktów powinna się zmienić automatycznie na 1.
-6.  Zmień ilość produktów na -2. Kliknij przycisk "PRZELICZ" - liczba produktów powinna się zmienić automatycznie na 1.
-7. Wykonaj kroki 2-6 również dla zalogowanego użytkownika o prawach klienta.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Dodaj dowolny dostępny produkt na stronie do koszyka.
-3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
-4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
-5. Nie wpisuj nic tylko kliknij "DALEJ" - powinien pojawić się komunikat "Proszę podać Adresata przesyłki".
-6. Podaj prawidłowe dane adresowe i kliknij "DALEJ" - powinien pojawić się komunikat: "Proszę podać adres e-mail".
-7. Podaj adres e-mail i kliknij "DALEJ" - powinien pojawić się komunikat: "Proszę podać telefon".
-8. Podaj telefon i wciśnij przycisk "DALEJ" - powinno Cię przekierować do podsumowania zamówienia. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Dodaj dowolny dostępny produkt na stronie do koszyka, którego cena jest niższa niż 169zł.
-3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
-4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
-5. Wypełnij poprawnie adres wysyłki i dane kontaktowe. Jako formę transportu wybierz "GRATIS WYSYŁKA - WPŁATA na konto - zakupy powyżej 169zł - POCZTA POLSKA", a jako formę płatności Wpłata na konto.
-6. Kliknij przycisk "DALEJ" - powinien pojawić się komunikat informujący, że należy zamówić towary za minimum 169zł, aby wybrać wybraną formę transportu. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Dodaj dowolny dostępny produkt na stronie do koszyka.
-3. Kliknij w "TWÓJ KOSZYK" w menu głównym - powinno Cię przekierować do widoku Twojego koszyka.
-4. Kliknij przycisk "ZŁÓŻ ZAMÓWIENIE" - powinno pojawić się podsumowanie zamówienia, formularz dostawy i opcje wysyłki.
-5. Wypełnij poprawnie adres wysyłki i dane kontaktowe. Jako formę transportu wybierz "KURIER UPS - WPŁATA NA KONTO - KURIER UPS ", a jako formę płatności "Zapłata w Aptece Słonik przy osobistym odbiorze ".
-6. Kliknij przycisk "DALEJ" - powinien pojawić się komunikat informujący, że forma płatności i/lub forma transportu zostały niepoprawnie wybrane. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pojawienie się komunikatu informującego o niepoprawnie wybranej formie transportu i/lub formie płatności. </t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Z lewej strony znajduje się wyszukiwarka. Wpisz w okno wyszukiwania szukaną frazę np. "krem". Kliknij przycisk "SZUKAJ" lub enter - powinna pojawić się lista produktów odpowiadających wyszukiwanej frazie.
-3. Przy nagłówku "Nazwa produktu" widoczny jest biały trójkącik skierowany w górę - lista wyników powinna być sortowana alfabetycznie rosnąco wg nazwy.
-4. Kliknij w nagłówek "Nazwa produktu" - biały trójkącik powinien być teraz skierowany w dół, a wyniki powinny wyświetlać się w kolejności alfabetycznej malejąco wg nazwy.
-5. Kliknij w nagłówek "Postać" - wyniki powinny być teraz sortowane alfabetycznie wg postaci produktu - rosnąco, gdy trójkącik jest skierowany w górę, a malejąco gdy trójkącik jest skierowany w dół. Kliknij kilka razy w nagłówek i sprawdź, czy sortowanie jest poprawne.
-6. Kliknij w nagłówek "Cena" - wyniki powinny być teraz sortowane alfabetycznie wg ceny produktu - rosnąco, gdy trójkącik jest skierowany w górę, a malejąco gdy trójkącik jest skierowany w dół. Kliknij kilka razy w nagłówek i sprawdź, czy sortowanie jest poprawne.</t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Z lewej strony znajduje się wyszukiwarka. Wpisz w okno wyszukiwania szukaną frazę poprzedzoną dwoma spacjami np. "  krem". Kliknij przycisk "SZUKAJ" lub enter - wyszukiwarka powinna uciąć białe znaki i powinna pojawić się lista produktów odpowiadających wyszukiwanej frazie.
-3. Wróć do okna wyszukiwania i wpisz w nie "rem".  Kliknij przycisk "SZUKAJ" lub enter -  powinna pojawić się lista produktów zawierających w swojej nazwie frazę "rem", np. krem.</t>
+    <t>Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/ do testowania jako zalogowany użytkownik.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
@@ -641,130 +692,73 @@
 9. Ponownie przejdź do wyszukiwania zaawansowanego - kryteria wyszukiwania powinny być puste.
 10. Z listy Postaci wybierz dowolną i kliknij przycisk "SZUKAJ" - powinna pojawić się lista wyników z produktami tylko w wybranej postaci. Powtórz wyszukiwania dla kilku dostępnych postaci i sprawdź, czy otrzymane wyniki odpowiadają wybranej postaci.
 11. Ponownie przejdź do wyszukiwania zaawansowanego - kryteria wyszukiwania powinny być puste.
-10. Wybierz zakres cen "od" "do" i kliknij przycisk "SZUKAJ" - powinna pojawić się lista wyników z produktami, których cena zawiera się w wybranym przedziale. Sprawdź, czy wyniki odpowiadają wybranym kryteriom wyszukiwania.
+12. Wybierz zakres cen "od" "do" i kliknij przycisk "SZUKAJ" - powinna pojawić się lista wyników z produktami, których cena zawiera się w wybranym przedziale. Sprawdź, czy wyniki odpowiadają wybranym kryteriom wyszukiwania.
 </t>
   </si>
   <si>
-    <t>Celem testu jest sprawdzenie, czy wyszukiwarka zwraca wyniki tylko odpowiadające kryteriom i czy jeśli danego produktu nie znajdzie, to wyświetla się komunikat, że nie znaleziono szukanego produktu.</t>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+3. Znajdź na stronie dowolny produkt, który nie jest dostępny na stanie - zamiast ceny widnieje przy takim produkcie "Zapytaj o dostępność". Kliknij w tę frazę - powinno Cię przekierować do formularza umożliwiającego zapytanie o dostępność danego produktu.
+3. Wypełnij poprawie formularz i potwierdź wysłanie - powinien pojawić się komunikat potwierdzający wysłane zapytanie o dostępność produktu. </t>
   </si>
   <si>
     <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2.  Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
-3. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+3. Z prawej strony widoczny jest panel "Newsletter". W okno w paneli podaj swój adres e-mail (przypisany do konta) i kliknij "ZAPISZ" - powinien pojawić się komunikat potwierdzający zapisanie adresu e-mail do Newsletteru.
+4. Ponownie przejdź do panelu "Newsletter". W okno podaj ten sam adres e-mail i kliknij "WYPISZ" - powinien wyświetlić się komunikat potwierdzający wypisanie adresu e-mail z Newsletteru.
+5. Wyloguj się ze swojego konta.
+6. Ponownie przejdź do panelu "Newsletter". W okno podaj adres e-mail, który nie jest na liście Newsletteru w Aptece Słonik i kliknij "WPISZ" - powinien wyświetlić się komunikat potwierdzający zapisanie adresu e-mail do Newsletteru.
+7. Ponownie przejdź do panelu "Newsletter". W okno podaj ten sam adres e-mail i kliknij "WYPISZ" - powinien wyświetlić się komunikat potwierdzający wypisanie adresu e-mail z Newsletteru.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+3. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
+4. Wypełnij poprawnie wymagane dane, wpisz pytanie i kliknij przycisk "Zadaj pytanie" - powinien pojawić się komunikat potwierdzający wysłanie zapytania. 
+5. Wyloguj się ze swojego konta. Ponownie przejdź do formularza "Zapytaj farmaceutę".
+6. Wypełnij poprawnie wymagane dane, wpisz pytanie i kliknij przycisk "Zadaj pytanie" - powinien pojawić się komunikat potwierdzający wysłanie zapytania. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Próba wysłania pustego zapytania przez formularz "Zapytaj farmaceutę" jako zalogowany użytkownik z prawami klienta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+3. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
+4. Pozostaw wszystkie obowiązkowe pola puste i kliknij "Zadaj pytanie" - powinien pojawić się komunikat informujący, że pola Imię i nazwisko, adres e-mail i pytanie są obowiązkowe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+3. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
+4. W pole Imię i nazwisko oraz adres e-mail podaj ciągi znaków składające się tylko z cyfr,  a w treści pytania wpisz tylko jeden dowolny znak. Kliknij przycisk "Zadaj pytanie" - powinien pojawić się komunikat informujący, że Imię i nazwisko może zawierać tylko litery, adres e-mail musi zawierać znak @ i musi się on pojawić tylko raz, kropka musi pojawić się przynajmniej raz później niż znak @. Pytanie musi zawierać co najmniej 20 znaków. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+3. Przejrzyj listę zamówień. Po kliknięciu w wybrane zamówienie powinny wyświetlić się szczegóły zamówienia.
+4. W prawym górnym rogu strony, pod panelem "Moje konto", kliknij w "Moje dane" - powinny wyświetlić się Twoje dane.
+5. Zmień swój adres i numer telefonu wpisując poprawne dane. Kliknij przycisk "Zapisz zmiany" - powinien pojawić się komunikat "Sukces Dane zostały poprawnie zmienione".
+6. Z panelu "Moje konto" wybierz "Zmiana hasła" - powinien pojawić się formularz umożliwiający zmianę hasła.
+7. Wpisz poprawne stare hasło  w pierwszym oknie, a  w dwóch kolejnych poprawne nowe hasło (musi zawierać co najmniej 4 znaki). Kliknij przycisk "Zapisz".
+8. Powinien wyświetlić się komunikat: "Sukces Hasło zostało poprawnie zmienione".
+9. Kliknij przycisk "Wyloguj" w panelu "Moje konto" - powinno nastąpić prawidłowe wylogowanie się ze strony.
+</t>
+  </si>
+  <si>
+    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+3. Wybierz dowolny produkt z oferty sklepu i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
 4. Zjedź w dół strony i kliknij przycisk "DODAJ OPINIĘ" - powinien otworzyć się formularz umożliwiający wystawienie opinii o danym produkcie.
-5. Podaj swój Nick i wpisz treść opinii. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że tylko zarejestrowany użytkownik może dodać opinię o produkcie.</t>
+5. Podaj wymyślony nick i wpisz treść opinii. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że opinia została pomyślnie dodana.</t>
   </si>
   <si>
     <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
-5. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
-7. Zjedź w dół strony i kliknij przycisk "DODAJ OPINIĘ" - powinien otworzyć się formularz umożliwiający wystawienie opinii o danym produkcie.
-8. Nie wypełniaj wymaganych pól. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że pola nick i opinia są wymagane.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Znajdź na stronie dowolny produkt, który nie jest dostępny na stanie - zamiast ceny widnieje przy takim produkcie "Zapytaj o dostępność". Kliknij w tę frazę - powinno Cię przekierować do formularza umożliwiającego zapytanie o dostępność danego produktu.
-5. Wypełnij poprawie formularz i potwierdź wysłanie - powinien pojawić się komunikat potwierdzający wysłane zapytanie o dostępność produktu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pojawienie się komunikatu potwierdzającego wysłanie zapytanie o dostępność produktu. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zapisz się lub wypisz się z Newsletteru jako niezarejestrowany użytkownik lub jako zalogowany użytkownik o prawach klienta. </t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie poprawnego dodawania lub usuwania adresu e-mail do/z Newsletteru.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/, którego użytkownik nie jest zapisany do newsletteru Apteki Słonik. </t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie poprawności wysyłania zapytania przez formularz "Zapytaj farmaceutę".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
-5. Wypełnij poprawnie wymagane dane, wpisz pytanie i kliknij przycisk "Zadaj pytanie" - powinien pojawić się komunikat potwierdzający wysłanie zapytania. 
-6. Wyloguj się ze swojego konta. Ponownie przejdź do formularza "Zapytaj farmaceutę".
-7. Wypełnij poprawnie wymagane dane, wpisz pytanie i kliknij przycisk "Zadaj pytanie" - powinien pojawić się komunikat potwierdzający wysłanie zapytania. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
-5. Pozostaw wszystkie obowiązkowe pola puste i kliknij "Zadaj pytanie" - powinien pojawić się komunikat informujący, że pola Imię i nazwisko, adres e-mail i pytanie są obowiązkowe. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Z prawej strony widoczny jest panel "Zapytaj farmaceutę". Kliknij w hiperłącze w panelu - powinno Cię przekierować do formularza umożliwiającego zadanie pytania.
-5. W pole Imię i nazwisko oraz adres e-mail podaj ciągi znaków składające się tylko z cyfr,  a w treści pytania wpisz tylko jeden dowolny znak. Kliknij przycisk "Zadaj pytanie" - powinien pojawić się komunikat informujący, że Imię i nazwisko może zawierać tylko litery, adres e-mail musi zawierać znak @ i musi się on pojawić tylko raz, kropka musi pojawić się przynajmniej raz później niż znak @. Pytanie musi zawierać co najmniej 20 znaków. </t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie poprawności działania hiperłączy w panelach "informacje" oraz "promocje".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przejrzenie wszystkich hiperłącza z paneli "Informacje" oraz "Promocje" oraz stwierdzenie poprawnego ich działania. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie poprawności działania hiperłączy na stronie głównej. </t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Na stronie głównej apteki, w jej środkowej części, znajduje się wiele hiperłączy w postaci banerów - klikaj po kolei w każdy i sprawdź czy przenosi on na odpowiednią stronę (adekwatną do nazwy/grafiki hiperłącza) oraz sprawdź, czy wszystkie hiperłącza otwierają się w ten sam sposób. 
-3. Powtórz czynność z punktu 2. z hiperłączami znajdującymi się w prawej części strony pod tytułem "Apteka kosmetyki".</t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Z prawej strony widoczny jest panel "Newsletter". W okno w paneli podaj swój adres e-mail (przypisany do konta) i kliknij "ZAPISZ" - powinien pojawić się komunikat potwierdzający zapisanie adresu e-mail do Newsletteru.
-5. Ponownie przejdź do panelu "Newsletter". W okno podaj ten sam adres e-mail i kliknij "WYPISZ" - powinien wyświetlić się komunikat potwierdzający wypisanie adresu e-mail z Newsletteru.
-6. Wyloguj się ze swojego konta.
-7. Ponownie przejdź do panelu "Newsletter". W okno podaj adres e-mail, który nie jest na liście Newsletteru w Aptece Słonik i kliknij "WPISZ" - powinien wyświetlić się komunikat potwierdzający zapisanie adresu e-mail do Newsletteru.
-8. Ponownie przejdź do panelu "Newsletter". W okno podaj ten sam adres e-mail i kliknij "WYPISZ" - powinien wyświetlić się komunikat potwierdzający wypisanie adresu e-mail z Newsletteru.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dodanie opinii o produkcie jako zalogowany użytkownik o prawach klienta. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celem testu jest sprawdzenie poprawności dodania opinii o produkcie. </t>
-  </si>
-  <si>
-    <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania.
-3. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
-4. Wybierz dowolny produkt z oferty sklepu i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
+2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Wprowadź poprawny login i hasło i kliknij przycisk "ZALOGUJ" - powinno nastąpić poprawne zalogowanie się i powinien wyświetlić się widok Twojego konta wraz z historią zamówienia.
+3. Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
+4. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
 5. Zjedź w dół strony i kliknij przycisk "DODAJ OPINIĘ" - powinien otworzyć się formularz umożliwiający wystawienie opinii o danym produkcie.
-6. Podaj wymyślony nick i wpisz treść opinii. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że opinia została pomyślnie dodana.</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie poprawności przeglądania produktów według kategorii, według firm i według filtra alfabetycznego.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przeglądanie kategorii produktów, listy firm i  produktów według filtru alfabetycznego jako zalogowany użytkownik o prawach klienta lub jako niezarejestrowany użytkownik. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
-2. Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
-3. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
-4. Kliknij na zdjęcie produktu - powinno zostać powiększone.
-5. Z lewej strony znajduje się panel "Lista firm". Wybierz z rozwijanego menu dowolną firmę i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej firmy. 
-6. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
-7. Kliknij na zdjęcie produktu - powinno zostać powiększone.
-8. Z lewej strony znajduje się panel "Alfabetycznie". Wybierz dowolną literę i w nią kliknij - powinno Cię przekierować do strony z produktami o nazwie rozpoczynającej się na wybraną literę. 
-</t>
-  </si>
-  <si>
-    <t>SłTC-034</t>
+6. Nie wypełniaj wymaganych pól. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że pola nick i opinia są wymagane.</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0E64A6-3C5F-48B1-90B9-B19DB003C10F}">
   <dimension ref="C1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1185,10 +1179,10 @@
   <sheetData>
     <row r="1" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -1229,10 +1223,10 @@
     </row>
     <row r="5" spans="3:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -1241,10 +1235,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="2"/>
@@ -1252,22 +1246,22 @@
     </row>
     <row r="6" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
@@ -1275,22 +1269,22 @@
     </row>
     <row r="7" spans="3:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
@@ -1298,22 +1292,22 @@
     </row>
     <row r="8" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
@@ -1321,20 +1315,22 @@
     </row>
     <row r="9" spans="3:11" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
@@ -1342,22 +1338,22 @@
     </row>
     <row r="10" spans="3:11" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
@@ -1365,17 +1361,17 @@
     </row>
     <row r="11" spans="3:11" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="1"/>
@@ -1384,20 +1380,20 @@
     </row>
     <row r="12" spans="3:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
@@ -1405,22 +1401,22 @@
     </row>
     <row r="13" spans="3:11" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
@@ -1428,22 +1424,22 @@
     </row>
     <row r="14" spans="3:11" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
@@ -1451,22 +1447,22 @@
     </row>
     <row r="15" spans="3:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
@@ -1474,20 +1470,20 @@
     </row>
     <row r="16" spans="3:11" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
@@ -1495,20 +1491,22 @@
     </row>
     <row r="17" spans="3:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
@@ -1516,22 +1514,22 @@
     </row>
     <row r="18" spans="3:11" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
@@ -1539,22 +1537,22 @@
     </row>
     <row r="19" spans="3:11" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
@@ -1562,20 +1560,20 @@
     </row>
     <row r="20" spans="3:11" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
@@ -1583,20 +1581,22 @@
     </row>
     <row r="21" spans="3:11" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="G21" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
@@ -1604,20 +1604,22 @@
     </row>
     <row r="22" spans="3:11" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="G22" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
@@ -1625,20 +1627,22 @@
     </row>
     <row r="23" spans="3:11" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G23" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
@@ -1646,20 +1650,22 @@
     </row>
     <row r="24" spans="3:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G24" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
@@ -1667,20 +1673,22 @@
     </row>
     <row r="25" spans="3:11" ht="288" x14ac:dyDescent="0.3">
       <c r="C25" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G25" s="3" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
@@ -1688,20 +1696,22 @@
     </row>
     <row r="26" spans="3:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G26" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
@@ -1709,20 +1719,22 @@
     </row>
     <row r="27" spans="3:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="G27" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
@@ -1730,22 +1742,22 @@
     </row>
     <row r="28" spans="3:11" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
@@ -1753,22 +1765,22 @@
     </row>
     <row r="29" spans="3:11" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
@@ -1776,20 +1788,20 @@
     </row>
     <row r="30" spans="3:11" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
@@ -1797,22 +1809,22 @@
     </row>
     <row r="31" spans="3:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C31" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
@@ -1820,22 +1832,22 @@
     </row>
     <row r="32" spans="3:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
@@ -1843,22 +1855,22 @@
     </row>
     <row r="33" spans="3:11" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="2"/>
@@ -1866,22 +1878,22 @@
     </row>
     <row r="34" spans="3:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
@@ -1889,22 +1901,22 @@
     </row>
     <row r="35" spans="3:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C35" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
@@ -1912,22 +1924,22 @@
     </row>
     <row r="36" spans="3:11" ht="144" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
@@ -1935,39 +1947,43 @@
     </row>
     <row r="37" spans="3:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="G37" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="3:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="G38" s="3" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I38" s="4"/>
     </row>

--- a/Apteka Słonik - przypadki testowe.xlsx
+++ b/Apteka Słonik - przypadki testowe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulina1\Documents\Paulina\cherry IT kurs\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C0A371-C221-4460-88A2-3EA9A3E3E172}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A41E1-64B0-4407-ACA1-520E8979E6F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{AB1AB39C-E731-44E5-9F2C-6E1CC1ADA555}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="178">
   <si>
     <t>ID</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Próba zalogowania się do systemu jako klient podając niepoprawny login i niepoprawne hasło.</t>
   </si>
   <si>
-    <t>Poprawna rejestracja w systemie jak klient.</t>
-  </si>
-  <si>
     <t>Poprawne zalogowanie się do systemu jako klient.</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
   </si>
   <si>
     <t xml:space="preserve">Poprawne zarządzanie swoim kontem po zalogowaniu się jako klient - przeglądanie historii zamówień, zmiana danych i hasła, wylogowanie się. </t>
-  </si>
-  <si>
-    <t>Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/. W historii zamówień powinna być przynajmniej jedna pozycja.</t>
   </si>
   <si>
     <t>Prawidłowe wylogowanie się ze strony.</t>
@@ -320,105 +314,6 @@
     <t>Pojawienie się komunikatu informującego, ze opinia została dodana pomyślnie.</t>
   </si>
   <si>
-    <t>SłTC-001</t>
-  </si>
-  <si>
-    <t>SłTC-002</t>
-  </si>
-  <si>
-    <t>SłTC-003</t>
-  </si>
-  <si>
-    <t>SłTC-004</t>
-  </si>
-  <si>
-    <t>SłTC-005</t>
-  </si>
-  <si>
-    <t>SłTC-006</t>
-  </si>
-  <si>
-    <t>SłTC-007</t>
-  </si>
-  <si>
-    <t>SłTC-008</t>
-  </si>
-  <si>
-    <t>SłTC-009</t>
-  </si>
-  <si>
-    <t>SłTC-010</t>
-  </si>
-  <si>
-    <t>SłTC-011</t>
-  </si>
-  <si>
-    <t>SłTC-012</t>
-  </si>
-  <si>
-    <t>SłTC-013</t>
-  </si>
-  <si>
-    <t>SłTC-014</t>
-  </si>
-  <si>
-    <t>SłTC-015</t>
-  </si>
-  <si>
-    <t>SłTC-016</t>
-  </si>
-  <si>
-    <t>SłTC-017</t>
-  </si>
-  <si>
-    <t>SłTC-018</t>
-  </si>
-  <si>
-    <t>SłTC-019</t>
-  </si>
-  <si>
-    <t>SłTC-020</t>
-  </si>
-  <si>
-    <t>SłTC-021</t>
-  </si>
-  <si>
-    <t>SłTC-022</t>
-  </si>
-  <si>
-    <t>SłTC-023</t>
-  </si>
-  <si>
-    <t>SłTC-024</t>
-  </si>
-  <si>
-    <t>SłTC-025</t>
-  </si>
-  <si>
-    <t>SłTC-026</t>
-  </si>
-  <si>
-    <t>SłTC-027</t>
-  </si>
-  <si>
-    <t>SłTC-028</t>
-  </si>
-  <si>
-    <t>SłTC-029</t>
-  </si>
-  <si>
-    <t>SłTC-030</t>
-  </si>
-  <si>
-    <t>SłTC-031</t>
-  </si>
-  <si>
-    <t>SłTC-032</t>
-  </si>
-  <si>
-    <t>SłTC-033</t>
-  </si>
-  <si>
     <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
 2. W prawym górnym rogu strony, pod panelem głównym widać okno logowania. Na dole okna znajdź słowo "Rejestracja" i kliknij w nie - powinno nastąpić przekierowanie do formularza rejestracyjnego.
 3. Wprowadź poprawne dane, wyraź zgodę na umieszczenie swoich danych teleadresowych w bazie firmy i kliknij przycisk "ZAREJESTRUJ SIĘ" - powinien pojawić się komunikat "Rejestracja zakończona sukcesem ! 
@@ -445,9 +340,6 @@
   </si>
   <si>
     <t>Pojawienie się wszystkich komunikatów z kroków reprodukcji.</t>
-  </si>
-  <si>
-    <t>Próba zmiany hasła wpisując za krótkie hasło lub błędnie powtarzając nowe hasło.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
@@ -573,9 +465,6 @@
     <t>Celem testu jest sprawdzenie poprawności przeglądania produktów według kategorii, według firm i według filtra alfabetycznego.</t>
   </si>
   <si>
-    <t xml:space="preserve">Przeglądanie kategorii produktów, listy firm i  produktów według filtru alfabetycznego jako zalogowany użytkownik o prawach klienta lub jako niezarejestrowany użytkownik. </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
 2. Z lewej strony znajduje się panel "Kategorie". Wybierz dowolną kategorię i w nią kliknij - powinno Cię przekierować do strony z produktami z wybranej kategorii. 
 3. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
@@ -585,9 +474,6 @@
 7. Kliknij na zdjęcie produktu - powinno zostać powiększone.
 8. Z lewej strony znajduje się panel "Alfabetycznie". Wybierz dowolną literę i w nią kliknij - powinno Cię przekierować do strony z produktami o nazwie rozpoczynającej się na wybraną literę. 
 </t>
-  </si>
-  <si>
-    <t>SłTC-034</t>
   </si>
   <si>
     <t>1. Otwórz przeglądarkę i przejdź na stronę http://www.aptekaslonik.pl/
@@ -759,6 +645,126 @@
 4. Wybierz dowolny produkt z listy i kliknij w jego nazwę - powinno Cię przenieść do strony z opisem wybranego produktu.
 5. Zjedź w dół strony i kliknij przycisk "DODAJ OPINIĘ" - powinien otworzyć się formularz umożliwiający wystawienie opinii o danym produkcie.
 6. Nie wypełniaj wymaganych pól. Kliknij przycisk "DODAJ OPINIĘ" - powinien pojawić się komunikat informujący, że pola nick i opinia są wymagane.</t>
+  </si>
+  <si>
+    <t>Pojawienie się komunikatu informującego o niepoprawnie wprowadzonych danych.</t>
+  </si>
+  <si>
+    <t>Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl. W historii zamówień powinna być przynajmniej jedna pozycja.</t>
+  </si>
+  <si>
+    <t>Próba zmiany hasła wpisując za krótkie hasło lub błędnie powtarzając nowe hasło jako klient.</t>
+  </si>
+  <si>
+    <t>Poprawna rejestracja w systemie jako klient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przeglądanie produktów według kategorii, listy firm oraz filtru alfabetycznego jako zalogowany użytkownik o prawach klienta lub jako niezarejestrowany użytkownik. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posiadanie aktywnego konta o prawach klienta na stronie http://www.aptekaslonik.pl/. </t>
+  </si>
+  <si>
+    <t>SLTC-001</t>
+  </si>
+  <si>
+    <t>SLTC-002</t>
+  </si>
+  <si>
+    <t>SLTC-003</t>
+  </si>
+  <si>
+    <t>SLTC-004</t>
+  </si>
+  <si>
+    <t>SLTC-005</t>
+  </si>
+  <si>
+    <t>SLTC-006</t>
+  </si>
+  <si>
+    <t>SLTC-007</t>
+  </si>
+  <si>
+    <t>SLTC-008</t>
+  </si>
+  <si>
+    <t>SLTC-009</t>
+  </si>
+  <si>
+    <t>SLTC-010</t>
+  </si>
+  <si>
+    <t>SLTC-011</t>
+  </si>
+  <si>
+    <t>SLTC-012</t>
+  </si>
+  <si>
+    <t>SLTC-013</t>
+  </si>
+  <si>
+    <t>SLTC-014</t>
+  </si>
+  <si>
+    <t>SLTC-015</t>
+  </si>
+  <si>
+    <t>SLTC-016</t>
+  </si>
+  <si>
+    <t>SLTC-017</t>
+  </si>
+  <si>
+    <t>SLTC-018</t>
+  </si>
+  <si>
+    <t>SLTC-019</t>
+  </si>
+  <si>
+    <t>SLTC-020</t>
+  </si>
+  <si>
+    <t>SLTC-021</t>
+  </si>
+  <si>
+    <t>SLTC-022</t>
+  </si>
+  <si>
+    <t>SLTC-023</t>
+  </si>
+  <si>
+    <t>SLTC-024</t>
+  </si>
+  <si>
+    <t>SLTC-025</t>
+  </si>
+  <si>
+    <t>SLTC-026</t>
+  </si>
+  <si>
+    <t>SLTC-027</t>
+  </si>
+  <si>
+    <t>SLTC-028</t>
+  </si>
+  <si>
+    <t>SLTC-029</t>
+  </si>
+  <si>
+    <t>SLTC-030</t>
+  </si>
+  <si>
+    <t>SLTC-031</t>
+  </si>
+  <si>
+    <t>SLTC-032</t>
+  </si>
+  <si>
+    <t>SLTC-033</t>
+  </si>
+  <si>
+    <t>SLTC-034</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0E64A6-3C5F-48B1-90B9-B19DB003C10F}">
   <dimension ref="C1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,7 +1177,7 @@
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
     <col min="7" max="7" width="110.88671875" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.5546875" customWidth="1"/>
@@ -1179,10 +1185,10 @@
   <sheetData>
     <row r="1" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -1223,10 +1229,10 @@
     </row>
     <row r="5" spans="3:11" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -1235,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>10</v>
@@ -1246,7 +1252,7 @@
     </row>
     <row r="6" spans="3:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>13</v>
@@ -1258,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>12</v>
@@ -1269,7 +1275,7 @@
     </row>
     <row r="7" spans="3:11" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
@@ -1281,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>12</v>
@@ -1292,19 +1298,19 @@
     </row>
     <row r="8" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>12</v>
@@ -1315,22 +1321,22 @@
     </row>
     <row r="9" spans="3:11" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
@@ -1338,22 +1344,22 @@
     </row>
     <row r="10" spans="3:11" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
@@ -1361,39 +1367,41 @@
     </row>
     <row r="11" spans="3:11" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="3:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
@@ -1401,22 +1409,22 @@
     </row>
     <row r="13" spans="3:11" ht="189.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
@@ -1424,22 +1432,22 @@
     </row>
     <row r="14" spans="3:11" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
@@ -1447,66 +1455,68 @@
     </row>
     <row r="15" spans="3:11" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="3:11" ht="267.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:11" ht="283.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="3:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="H17" s="3" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
@@ -1514,22 +1524,22 @@
     </row>
     <row r="18" spans="3:11" ht="250.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
@@ -1537,22 +1547,22 @@
     </row>
     <row r="19" spans="3:11" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
@@ -1560,20 +1570,22 @@
     </row>
     <row r="20" spans="3:11" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="G20" s="3" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
@@ -1581,22 +1593,22 @@
     </row>
     <row r="21" spans="3:11" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
@@ -1604,22 +1616,22 @@
     </row>
     <row r="22" spans="3:11" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="2"/>
@@ -1627,22 +1639,22 @@
     </row>
     <row r="23" spans="3:11" ht="191.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="2"/>
@@ -1650,45 +1662,45 @@
     </row>
     <row r="24" spans="3:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:11" ht="288" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" ht="313.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="3" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
@@ -1696,45 +1708,45 @@
     </row>
     <row r="26" spans="3:11" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:11" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="2"/>
@@ -1742,22 +1754,22 @@
     </row>
     <row r="28" spans="3:11" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
@@ -1765,22 +1777,22 @@
     </row>
     <row r="29" spans="3:11" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="2"/>
@@ -1788,20 +1800,20 @@
     </row>
     <row r="30" spans="3:11" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="2"/>
@@ -1809,22 +1821,22 @@
     </row>
     <row r="31" spans="3:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C31" s="3" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="2"/>
@@ -1832,22 +1844,22 @@
     </row>
     <row r="32" spans="3:11" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="2"/>
@@ -1855,22 +1867,22 @@
     </row>
     <row r="33" spans="3:11" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="2"/>
@@ -1878,22 +1890,22 @@
     </row>
     <row r="34" spans="3:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="2"/>
@@ -1901,22 +1913,22 @@
     </row>
     <row r="35" spans="3:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C35" s="3" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
@@ -1924,22 +1936,22 @@
     </row>
     <row r="36" spans="3:11" ht="144" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
@@ -1947,43 +1959,43 @@
     </row>
     <row r="37" spans="3:11" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="H37" s="5" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="3:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:11" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="I38" s="4"/>
     </row>
